--- a/ProcessedData/conf_svm_audio_3.xlsx
+++ b/ProcessedData/conf_svm_audio_3.xlsx
@@ -14,18 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>video_number</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>prediction</t>
@@ -393,20 +384,20 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="1">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -414,13 +405,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.9184447105482737</v>
+        <v>-0.9184378715640173</v>
       </c>
       <c r="C2">
-        <v>-0.4491146021980423</v>
+        <v>-0.4491168821328548</v>
       </c>
       <c r="D2">
-        <v>0.2697072246597292</v>
+        <v>0.2696999085329805</v>
+      </c>
+      <c r="E2">
+        <v>19</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -431,13 +425,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-1.605832009184776</v>
+        <v>-1.605826025081436</v>
       </c>
       <c r="C3">
-        <v>-0.09459470132897821</v>
+        <v>-0.09459713924894124</v>
       </c>
       <c r="D3">
-        <v>0.5513609656113259</v>
+        <v>0.5513532393463443</v>
+      </c>
+      <c r="E3">
+        <v>19</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -448,13 +445,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-1.026863735258668</v>
+        <v>-1.026856964360787</v>
       </c>
       <c r="C4">
-        <v>-0.5872547821988283</v>
+        <v>-0.5872568716082733</v>
       </c>
       <c r="D4">
-        <v>0.521429633169566</v>
+        <v>0.5214220366452977</v>
+      </c>
+      <c r="E4">
+        <v>19</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -465,13 +465,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-1.068668296760418</v>
+        <v>-1.068660920930278</v>
       </c>
       <c r="C5">
-        <v>-0.3370503131967214</v>
+        <v>-0.3370524835095118</v>
       </c>
       <c r="D5">
-        <v>0.3615111800785005</v>
+        <v>0.3615037737960365</v>
+      </c>
+      <c r="E5">
+        <v>19</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -482,13 +485,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.7379547115786558</v>
+        <v>-0.7379489229444425</v>
       </c>
       <c r="C6">
-        <v>-0.5139654609193478</v>
+        <v>-0.513967536823645</v>
       </c>
       <c r="D6">
-        <v>0.1931103080081573</v>
+        <v>0.1931029329685707</v>
+      </c>
+      <c r="E6">
+        <v>19</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -499,13 +505,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.546610934375216</v>
+        <v>-0.5466049691277532</v>
       </c>
       <c r="C7">
-        <v>-0.2265087091598498</v>
+        <v>-0.2265105743564236</v>
       </c>
       <c r="D7">
-        <v>-0.275682377169667</v>
+        <v>-0.2756885455692157</v>
+      </c>
+      <c r="E7">
+        <v>19</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -516,13 +525,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.9597484053640334</v>
+        <v>-0.9597418054579767</v>
       </c>
       <c r="C8">
-        <v>-0.306517886263413</v>
+        <v>-0.3065201528995759</v>
       </c>
       <c r="D8">
-        <v>0.1667259159806767</v>
+        <v>0.1667185788762131</v>
+      </c>
+      <c r="E8">
+        <v>19</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -533,13 +545,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.9824677408413541</v>
+        <v>-0.9824618575753463</v>
       </c>
       <c r="C9">
-        <v>-0.3380317368013976</v>
+        <v>-0.3380337309089214</v>
       </c>
       <c r="D9">
-        <v>0.2356405573965308</v>
+        <v>0.2356326684602219</v>
+      </c>
+      <c r="E9">
+        <v>19</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -550,13 +565,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-1.078628295053121</v>
+        <v>-1.078621477605743</v>
       </c>
       <c r="C10">
-        <v>-0.5929599037586677</v>
+        <v>-0.5929618614951734</v>
       </c>
       <c r="D10">
-        <v>0.573936972790567</v>
+        <v>0.5739298845029612</v>
+      </c>
+      <c r="E10">
+        <v>19</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -567,13 +585,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.8738992026685971</v>
+        <v>-0.873891069207031</v>
       </c>
       <c r="C11">
-        <v>-0.7270516022816595</v>
+        <v>-0.727053784404707</v>
       </c>
       <c r="D11">
-        <v>0.5154497280431194</v>
+        <v>0.5154424177232344</v>
+      </c>
+      <c r="E11">
+        <v>19</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -584,13 +605,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.6651062327576612</v>
+        <v>-0.6650987005742388</v>
       </c>
       <c r="C12">
-        <v>-0.3387678932192132</v>
+        <v>-0.3387704243611237</v>
       </c>
       <c r="D12">
-        <v>-0.07661957225564442</v>
+        <v>-0.07662615767637915</v>
+      </c>
+      <c r="E12">
+        <v>19</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -601,13 +625,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.7872584263451295</v>
+        <v>-0.7872522763270322</v>
       </c>
       <c r="C13">
-        <v>-0.3750176200659407</v>
+        <v>-0.3750196880819239</v>
       </c>
       <c r="D13">
-        <v>0.08948160871507427</v>
+        <v>0.0894739913067113</v>
+      </c>
+      <c r="E13">
+        <v>19</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -618,13 +645,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-1.152313681436817</v>
+        <v>-1.15230732790257</v>
       </c>
       <c r="C14">
-        <v>-0.3692054867183937</v>
+        <v>-0.3692078740752566</v>
       </c>
       <c r="D14">
-        <v>0.4003163403746017</v>
+        <v>0.4003088334915608</v>
+      </c>
+      <c r="E14">
+        <v>19</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -635,13 +665,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-1.049802473369739</v>
+        <v>-1.04979702201134</v>
       </c>
       <c r="C15">
-        <v>-0.6671181758904476</v>
+        <v>-0.6671204656183118</v>
       </c>
       <c r="D15">
-        <v>0.6263972046925779</v>
+        <v>0.6263892418876948</v>
+      </c>
+      <c r="E15">
+        <v>19</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -652,13 +685,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-1.221449875133719</v>
+        <v>-1.22144295488358</v>
       </c>
       <c r="C16">
-        <v>-0.318761901509614</v>
+        <v>-0.3187640805493875</v>
       </c>
       <c r="D16">
-        <v>0.3989576776360759</v>
+        <v>0.3989497292037709</v>
+      </c>
+      <c r="E16">
+        <v>19</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -669,13 +705,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.664073880864291</v>
+        <v>-0.6640667844551444</v>
       </c>
       <c r="C17">
-        <v>-0.6217038881036558</v>
+        <v>-0.6217061682103749</v>
       </c>
       <c r="D17">
-        <v>0.2425975393977322</v>
+        <v>0.2425902602324097</v>
+      </c>
+      <c r="E17">
+        <v>19</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -686,13 +725,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-1.152118721558692</v>
+        <v>-1.152112482137609</v>
       </c>
       <c r="C18">
-        <v>-0.3649831102270331</v>
+        <v>-0.3649854695172104</v>
       </c>
       <c r="D18">
-        <v>0.4654189602252372</v>
+        <v>0.4654113736213454</v>
+      </c>
+      <c r="E18">
+        <v>19</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -703,13 +745,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-1.395237848149196</v>
+        <v>-1.395231609152202</v>
       </c>
       <c r="C19">
-        <v>-0.1893795043173857</v>
+        <v>-0.1893818382906702</v>
       </c>
       <c r="D19">
-        <v>0.4670490899258426</v>
+        <v>0.4670411898378233</v>
+      </c>
+      <c r="E19">
+        <v>19</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -720,13 +765,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.8702261493170221</v>
+        <v>-0.8702195164465643</v>
       </c>
       <c r="C20">
-        <v>-0.5776329971485343</v>
+        <v>-0.5776350080300473</v>
       </c>
       <c r="D20">
-        <v>0.3698354115415057</v>
+        <v>0.3698282761355602</v>
+      </c>
+      <c r="E20">
+        <v>19</v>
       </c>
       <c r="F20">
         <v>2</v>
@@ -737,13 +785,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.9412897656549274</v>
+        <v>-0.9412833630741471</v>
       </c>
       <c r="C21">
-        <v>-0.3378166513871458</v>
+        <v>-0.3378189610852264</v>
       </c>
       <c r="D21">
-        <v>0.1721415703437297</v>
+        <v>0.1721341325978238</v>
+      </c>
+      <c r="E21">
+        <v>19</v>
       </c>
       <c r="F21">
         <v>2</v>
@@ -754,13 +805,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.9958225273203333</v>
+        <v>-0.9958160284398248</v>
       </c>
       <c r="C22">
-        <v>0.1030336186587597</v>
+        <v>0.1030304671114262</v>
       </c>
       <c r="D22">
-        <v>-0.3129033277561675</v>
+        <v>-0.3129103228576022</v>
+      </c>
+      <c r="E22">
+        <v>19</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -771,13 +825,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-1.755543410676243</v>
+        <v>-1.755536504961009</v>
       </c>
       <c r="C23">
-        <v>-0.2158601787943966</v>
+        <v>-0.2158623867947263</v>
       </c>
       <c r="D23">
-        <v>0.7855338066998159</v>
+        <v>0.7855248870509879</v>
+      </c>
+      <c r="E23">
+        <v>20</v>
       </c>
       <c r="F23">
         <v>2</v>
@@ -788,13 +845,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.9275219237623283</v>
+        <v>-0.927513569418726</v>
       </c>
       <c r="C24">
-        <v>-0.4894419028695599</v>
+        <v>-0.4894437295823475</v>
       </c>
       <c r="D24">
-        <v>0.342047052386234</v>
+        <v>0.3420395612799991</v>
+      </c>
+      <c r="E24">
+        <v>20</v>
       </c>
       <c r="F24">
         <v>2</v>
@@ -805,13 +865,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-1.445091740499705</v>
+        <v>-1.445084121253536</v>
       </c>
       <c r="C25">
-        <v>-0.4790502283463838</v>
+        <v>-0.4790523711446426</v>
       </c>
       <c r="D25">
-        <v>0.7803338438611198</v>
+        <v>0.780325476898307</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
       </c>
       <c r="F25">
         <v>2</v>
@@ -822,13 +885,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-1.087454963442</v>
+        <v>-1.087447421806824</v>
       </c>
       <c r="C26">
-        <v>-0.2265635971539761</v>
+        <v>-0.2265655722380678</v>
       </c>
       <c r="D26">
-        <v>0.1559514840968386</v>
+        <v>0.1559446989604116</v>
+      </c>
+      <c r="E26">
+        <v>20</v>
       </c>
       <c r="F26">
         <v>2</v>
@@ -839,13 +905,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-1.074402651898358</v>
+        <v>-1.074394931006536</v>
       </c>
       <c r="C27">
-        <v>-0.4726183735146205</v>
+        <v>-0.4726200992228508</v>
       </c>
       <c r="D27">
-        <v>0.4752690629779597</v>
+        <v>0.475260933252498</v>
+      </c>
+      <c r="E27">
+        <v>20</v>
       </c>
       <c r="F27">
         <v>2</v>
@@ -856,13 +925,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-1.141381284908094</v>
+        <v>-1.141373709668899</v>
       </c>
       <c r="C28">
-        <v>-0.2076654928409927</v>
+        <v>-0.207668164973456</v>
       </c>
       <c r="D28">
-        <v>0.23884721398999</v>
+        <v>0.2388403125973684</v>
+      </c>
+      <c r="E28">
+        <v>20</v>
       </c>
       <c r="F28">
         <v>2</v>
@@ -873,13 +945,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-0.8421307850205203</v>
+        <v>-0.8421228456106176</v>
       </c>
       <c r="C29">
-        <v>-0.3161107496384647</v>
+        <v>-0.316112642904797</v>
       </c>
       <c r="D29">
-        <v>0.1106439812040554</v>
+        <v>0.110636889786939</v>
+      </c>
+      <c r="E29">
+        <v>20</v>
       </c>
       <c r="F29">
         <v>2</v>
@@ -890,13 +965,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-0.8898027111585508</v>
+        <v>-0.8897952355036951</v>
       </c>
       <c r="C30">
-        <v>-0.2239447474982011</v>
+        <v>-0.2239465734934625</v>
       </c>
       <c r="D30">
-        <v>0.05039253778073749</v>
+        <v>0.05038561955856635</v>
+      </c>
+      <c r="E30">
+        <v>20</v>
       </c>
       <c r="F30">
         <v>2</v>
@@ -907,13 +985,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-1.143915671599804</v>
+        <v>-1.143908816221062</v>
       </c>
       <c r="C31">
-        <v>-0.1846814849407759</v>
+        <v>-0.1846832316532824</v>
       </c>
       <c r="D31">
-        <v>0.1756898553197408</v>
+        <v>0.1756829800311051</v>
+      </c>
+      <c r="E31">
+        <v>20</v>
       </c>
       <c r="F31">
         <v>2</v>
@@ -924,13 +1005,16 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.8319700413609504</v>
+        <v>-0.8319627590578074</v>
       </c>
       <c r="C32">
-        <v>-0.09534095113153052</v>
+        <v>-0.09534248523724746</v>
       </c>
       <c r="D32">
-        <v>-0.1642757185021289</v>
+        <v>-0.1642826711417091</v>
+      </c>
+      <c r="E32">
+        <v>20</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -941,13 +1025,16 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.9827987145010385</v>
+        <v>-0.9827914235451749</v>
       </c>
       <c r="C33">
-        <v>-0.09639770150127019</v>
+        <v>-0.09639961851664823</v>
       </c>
       <c r="D33">
-        <v>-0.04047876793817129</v>
+        <v>-0.04048576352264921</v>
+      </c>
+      <c r="E33">
+        <v>20</v>
       </c>
       <c r="F33">
         <v>2</v>
@@ -958,13 +1045,16 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.9878371050775089</v>
+        <v>-0.9878292209399189</v>
       </c>
       <c r="C34">
-        <v>-0.2575439868643336</v>
+        <v>-0.2575460492747422</v>
       </c>
       <c r="D34">
-        <v>0.1467731224156728</v>
+        <v>0.1467658280742852</v>
+      </c>
+      <c r="E34">
+        <v>20</v>
       </c>
       <c r="F34">
         <v>2</v>
@@ -975,13 +1065,16 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-1.044475648652053</v>
+        <v>-1.044468123307513</v>
       </c>
       <c r="C35">
-        <v>-0.2612305604009528</v>
+        <v>-0.2612328997303265</v>
       </c>
       <c r="D35">
-        <v>0.1969562957730693</v>
+        <v>0.1969501348009239</v>
+      </c>
+      <c r="E35">
+        <v>20</v>
       </c>
       <c r="F35">
         <v>2</v>
@@ -992,13 +1085,16 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-0.6602110417374473</v>
+        <v>-0.6602028002585414</v>
       </c>
       <c r="C36">
-        <v>-0.4333052216174173</v>
+        <v>-0.4333079455927562</v>
       </c>
       <c r="D36">
-        <v>-0.02148391712516973</v>
+        <v>-0.02149067975722541</v>
+      </c>
+      <c r="E36">
+        <v>20</v>
       </c>
       <c r="F36">
         <v>2</v>
@@ -1009,13 +1105,16 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-1.096896063210904</v>
+        <v>-1.096888125056702</v>
       </c>
       <c r="C37">
-        <v>-0.588249966433612</v>
+        <v>-0.588252078815382</v>
       </c>
       <c r="D37">
-        <v>0.5279923624250702</v>
+        <v>0.5279848693258868</v>
+      </c>
+      <c r="E37">
+        <v>20</v>
       </c>
       <c r="F37">
         <v>2</v>
@@ -1026,13 +1125,16 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-0.557247986960444</v>
+        <v>-0.5572391628406899</v>
       </c>
       <c r="C38">
-        <v>-0.3159426064581359</v>
+        <v>-0.3159434032934598</v>
       </c>
       <c r="D38">
-        <v>-0.2067063163497953</v>
+        <v>-0.2067122842558751</v>
+      </c>
+      <c r="E38">
+        <v>20</v>
       </c>
       <c r="F38">
         <v>2</v>
@@ -1043,13 +1145,16 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-1.24491241476576</v>
+        <v>-1.24490502914345</v>
       </c>
       <c r="C39">
-        <v>0.2433256417120649</v>
+        <v>0.2433234923994244</v>
       </c>
       <c r="D39">
-        <v>-0.1698404165927156</v>
+        <v>-0.1698468315575379</v>
+      </c>
+      <c r="E39">
+        <v>20</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -1060,13 +1165,16 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-0.8948608456110628</v>
+        <v>-0.8948526676238957</v>
       </c>
       <c r="C40">
-        <v>-0.2962866363013336</v>
+        <v>-0.2962883977569911</v>
       </c>
       <c r="D40">
-        <v>0.1141043362395784</v>
+        <v>0.1140976678365586</v>
+      </c>
+      <c r="E40">
+        <v>20</v>
       </c>
       <c r="F40">
         <v>2</v>
@@ -1077,13 +1185,16 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-0.9334913086424853</v>
+        <v>-0.9334825322802816</v>
       </c>
       <c r="C41">
-        <v>-0.4233504281744248</v>
+        <v>-0.4233524011841364</v>
       </c>
       <c r="D41">
-        <v>0.2206507340494368</v>
+        <v>0.2206438868521381</v>
+      </c>
+      <c r="E41">
+        <v>20</v>
       </c>
       <c r="F41">
         <v>2</v>
@@ -1094,13 +1205,16 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-1.042340711281033</v>
+        <v>-1.042331658572281</v>
       </c>
       <c r="C42">
-        <v>-0.5110799486280853</v>
+        <v>-0.5110819901320782</v>
       </c>
       <c r="D42">
-        <v>0.4077954353614304</v>
+        <v>0.407788724832632</v>
+      </c>
+      <c r="E42">
+        <v>20</v>
       </c>
       <c r="F42">
         <v>2</v>
@@ -1111,13 +1225,16 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-1.264416722923763</v>
+        <v>-1.264409821773213</v>
       </c>
       <c r="C43">
-        <v>-0.1984019380720448</v>
+        <v>-0.1984040531076293</v>
       </c>
       <c r="D43">
-        <v>0.3195355348360365</v>
+        <v>0.3195281994924974</v>
+      </c>
+      <c r="E43">
+        <v>20</v>
       </c>
       <c r="F43">
         <v>2</v>
@@ -1128,13 +1245,16 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-1.164516171888478</v>
+        <v>-1.164508474947922</v>
       </c>
       <c r="C44">
-        <v>-0.5181262521319561</v>
+        <v>-0.5181286971240148</v>
       </c>
       <c r="D44">
-        <v>0.5527912169316505</v>
+        <v>0.5527844385184451</v>
+      </c>
+      <c r="E44">
+        <v>20</v>
       </c>
       <c r="F44">
         <v>2</v>
@@ -1145,13 +1265,16 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.6497491094201636</v>
+        <v>-0.649740819562499</v>
       </c>
       <c r="C45">
-        <v>-0.2865464112404071</v>
+        <v>-0.2865481284872843</v>
       </c>
       <c r="D45">
-        <v>-0.09972323800232741</v>
+        <v>-0.0997297666084529</v>
+      </c>
+      <c r="E45">
+        <v>20</v>
       </c>
       <c r="F45">
         <v>2</v>
@@ -1162,13 +1285,16 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-1.256129650037726</v>
+        <v>-1.256122342838616</v>
       </c>
       <c r="C46">
-        <v>-0.101582088850568</v>
+        <v>-0.1015838568503248</v>
       </c>
       <c r="D46">
-        <v>0.2620327392764155</v>
+        <v>0.2620253728882385</v>
+      </c>
+      <c r="E46">
+        <v>20</v>
       </c>
       <c r="F46">
         <v>2</v>
@@ -1179,13 +1305,16 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-0.9027409629838808</v>
+        <v>-0.9027329786568354</v>
       </c>
       <c r="C47">
-        <v>-0.5125885458360007</v>
+        <v>-0.5125905622704492</v>
       </c>
       <c r="D47">
-        <v>0.305167863233502</v>
+        <v>0.305160784628534</v>
+      </c>
+      <c r="E47">
+        <v>20</v>
       </c>
       <c r="F47">
         <v>2</v>
@@ -1196,13 +1325,16 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-1.574973219988436</v>
+        <v>-1.574966168326053</v>
       </c>
       <c r="C48">
-        <v>-0.2436600421356854</v>
+        <v>-0.2436627033101989</v>
       </c>
       <c r="D48">
-        <v>0.6522116281423087</v>
+        <v>0.652203962040216</v>
+      </c>
+      <c r="E48">
+        <v>20</v>
       </c>
       <c r="F48">
         <v>2</v>
@@ -1213,13 +1345,16 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.9853420104594505</v>
+        <v>-0.9853353160734672</v>
       </c>
       <c r="C49">
-        <v>-0.328334026934115</v>
+        <v>-0.3283361548316586</v>
       </c>
       <c r="D49">
-        <v>0.2270485365795529</v>
+        <v>0.2270407897252593</v>
+      </c>
+      <c r="E49">
+        <v>20</v>
       </c>
       <c r="F49">
         <v>2</v>
@@ -1230,13 +1365,16 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-0.3962230103381876</v>
+        <v>-0.3962144414317598</v>
       </c>
       <c r="C50">
-        <v>-0.4731909295592935</v>
+        <v>-0.4731927124582962</v>
       </c>
       <c r="D50">
-        <v>-0.1519713255627029</v>
+        <v>-0.1519781900501747</v>
+      </c>
+      <c r="E50">
+        <v>20</v>
       </c>
       <c r="F50">
         <v>2</v>
@@ -1247,13 +1385,16 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-1.084346927165909</v>
+        <v>-1.084338777226619</v>
       </c>
       <c r="C51">
-        <v>-0.2501460941826041</v>
+        <v>-0.2501485923188116</v>
       </c>
       <c r="D51">
-        <v>0.2152517241626828</v>
+        <v>0.215244706169085</v>
+      </c>
+      <c r="E51">
+        <v>20</v>
       </c>
       <c r="F51">
         <v>2</v>
@@ -1264,13 +1405,16 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-0.6619527222488951</v>
+        <v>-0.6619454234881561</v>
       </c>
       <c r="C52">
-        <v>-0.3052438541455174</v>
+        <v>-0.3052459205919095</v>
       </c>
       <c r="D52">
-        <v>-0.08655044012208202</v>
+        <v>-0.08655684610192393</v>
+      </c>
+      <c r="E52">
+        <v>20</v>
       </c>
       <c r="F52">
         <v>2</v>
@@ -1281,13 +1425,16 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-0.946796449624617</v>
+        <v>-0.9467883281836593</v>
       </c>
       <c r="C53">
-        <v>-0.4219732480559706</v>
+        <v>-0.4219753375674618</v>
       </c>
       <c r="D53">
-        <v>0.3346586418274984</v>
+        <v>0.3346516552665142</v>
+      </c>
+      <c r="E53">
+        <v>20</v>
       </c>
       <c r="F53">
         <v>2</v>
@@ -1298,13 +1445,16 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-0.9266840639475832</v>
+        <v>-0.9266765199547513</v>
       </c>
       <c r="C54">
-        <v>-0.1419214463056848</v>
+        <v>-0.1419233259348786</v>
       </c>
       <c r="D54">
-        <v>-0.01768285881848253</v>
+        <v>-0.01768965740961903</v>
+      </c>
+      <c r="E54">
+        <v>20</v>
       </c>
       <c r="F54">
         <v>2</v>
@@ -1315,13 +1465,16 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-1.180755275690714</v>
+        <v>-1.180747725098689</v>
       </c>
       <c r="C55">
-        <v>-0.2787913547398346</v>
+        <v>-0.2787934663062355</v>
       </c>
       <c r="D55">
-        <v>0.3508264938154737</v>
+        <v>0.3508191251119523</v>
+      </c>
+      <c r="E55">
+        <v>20</v>
       </c>
       <c r="F55">
         <v>2</v>
@@ -1332,13 +1485,16 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-1.108098417628147</v>
+        <v>-1.108091249042319</v>
       </c>
       <c r="C56">
-        <v>-0.09206581056808968</v>
+        <v>-0.09206779508417064</v>
       </c>
       <c r="D56">
-        <v>0.1159972600487218</v>
+        <v>0.1159903626493908</v>
+      </c>
+      <c r="E56">
+        <v>20</v>
       </c>
       <c r="F56">
         <v>2</v>
@@ -1349,13 +1505,16 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-1.318648537290977</v>
+        <v>-1.318641292972978</v>
       </c>
       <c r="C57">
-        <v>-0.0934229968088475</v>
+        <v>-0.09342559892081366</v>
       </c>
       <c r="D57">
-        <v>0.2905966683583281</v>
+        <v>0.290589147801267</v>
+      </c>
+      <c r="E57">
+        <v>20</v>
       </c>
       <c r="F57">
         <v>2</v>
@@ -1366,13 +1525,16 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-0.06511804446779021</v>
+        <v>-0.06510971346884697</v>
       </c>
       <c r="C58">
-        <v>-0.7046724721684265</v>
+        <v>-0.7046743462781527</v>
       </c>
       <c r="D58">
-        <v>-0.292976875416165</v>
+        <v>-0.2929824843807749</v>
+      </c>
+      <c r="E58">
+        <v>20</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -1383,13 +1545,16 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-1.12623113594882</v>
+        <v>-1.126222923311275</v>
       </c>
       <c r="C59">
-        <v>-0.1053772991047257</v>
+        <v>-0.1053793042459996</v>
       </c>
       <c r="D59">
-        <v>0.1601693650904856</v>
+        <v>0.1601621808128391</v>
+      </c>
+      <c r="E59">
+        <v>20</v>
       </c>
       <c r="F59">
         <v>2</v>
@@ -1400,13 +1565,16 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-1.321627203067614</v>
+        <v>-1.321620022743949</v>
       </c>
       <c r="C60">
-        <v>-0.3740038182675766</v>
+        <v>-0.3740053757577493</v>
       </c>
       <c r="D60">
-        <v>0.6260904435889216</v>
+        <v>0.6260829137540953</v>
+      </c>
+      <c r="E60">
+        <v>20</v>
       </c>
       <c r="F60">
         <v>2</v>
@@ -1417,13 +1585,16 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.6740090193051137</v>
+        <v>-0.6740008999788221</v>
       </c>
       <c r="C61">
-        <v>-0.5286249902943336</v>
+        <v>-0.5286266045707689</v>
       </c>
       <c r="D61">
-        <v>0.1418425627675959</v>
+        <v>0.1418360045592113</v>
+      </c>
+      <c r="E61">
+        <v>20</v>
       </c>
       <c r="F61">
         <v>2</v>
@@ -1434,13 +1605,16 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-1.162169271266107</v>
+        <v>-1.162161483664526</v>
       </c>
       <c r="C62">
-        <v>-0.05208428150212813</v>
+        <v>-0.05208628491800031</v>
       </c>
       <c r="D62">
-        <v>0.1084136324457468</v>
+        <v>0.1084068029363101</v>
+      </c>
+      <c r="E62">
+        <v>20</v>
       </c>
       <c r="F62">
         <v>2</v>
@@ -1451,13 +1625,16 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-1.011872423744236</v>
+        <v>-1.011866310313796</v>
       </c>
       <c r="C63">
-        <v>-0.2408879314201826</v>
+        <v>-0.240889648203884</v>
       </c>
       <c r="D63">
-        <v>0.1547490357346375</v>
+        <v>0.1547411718372018</v>
+      </c>
+      <c r="E63">
+        <v>21</v>
       </c>
       <c r="F63">
         <v>2</v>
@@ -1468,13 +1645,16 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-1.175049253245874</v>
+        <v>-1.175042581366065</v>
       </c>
       <c r="C64">
-        <v>-0.2632504047697489</v>
+        <v>-0.2632523099505511</v>
       </c>
       <c r="D64">
-        <v>0.3419628660015022</v>
+        <v>0.3419545309071637</v>
+      </c>
+      <c r="E64">
+        <v>21</v>
       </c>
       <c r="F64">
         <v>2</v>
@@ -1485,13 +1665,16 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.7089862324441978</v>
+        <v>-0.7089794001270084</v>
       </c>
       <c r="C65">
-        <v>-0.5450978649318003</v>
+        <v>-0.5450995878836079</v>
       </c>
       <c r="D65">
-        <v>0.1174143395443576</v>
+        <v>0.117406468800155</v>
+      </c>
+      <c r="E65">
+        <v>21</v>
       </c>
       <c r="F65">
         <v>2</v>
@@ -1502,13 +1685,16 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-1.003431914885384</v>
+        <v>-1.003425940033546</v>
       </c>
       <c r="C66">
-        <v>-0.08068111882509593</v>
+        <v>-0.08068284846934538</v>
       </c>
       <c r="D66">
-        <v>0.04049562524313943</v>
+        <v>0.04048822442512034</v>
+      </c>
+      <c r="E66">
+        <v>21</v>
       </c>
       <c r="F66">
         <v>2</v>
@@ -1519,13 +1705,16 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-0.8670361312893881</v>
+        <v>-0.8670294820057247</v>
       </c>
       <c r="C67">
-        <v>-0.4414860624665514</v>
+        <v>-0.4414887308320663</v>
       </c>
       <c r="D67">
-        <v>0.1998316917523311</v>
+        <v>0.1998235450433681</v>
+      </c>
+      <c r="E67">
+        <v>21</v>
       </c>
       <c r="F67">
         <v>2</v>
@@ -1536,13 +1725,16 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-1.420720945864398</v>
+        <v>-1.420716307070438</v>
       </c>
       <c r="C68">
-        <v>0.425423500883472</v>
+        <v>0.4254222008287947</v>
       </c>
       <c r="D68">
-        <v>-0.1578102331704654</v>
+        <v>-0.1578190057284188</v>
+      </c>
+      <c r="E68">
+        <v>21</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -1553,13 +1745,16 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-0.8327090517312669</v>
+        <v>-0.8327018266087962</v>
       </c>
       <c r="C69">
-        <v>-0.1143531952873599</v>
+        <v>-0.1143550713657077</v>
       </c>
       <c r="D69">
-        <v>-0.1202241908293069</v>
+        <v>-0.120230993535946</v>
+      </c>
+      <c r="E69">
+        <v>21</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -1570,13 +1765,16 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-0.3412706125780688</v>
+        <v>-0.3412640450591426</v>
       </c>
       <c r="C70">
-        <v>-0.1284909112318514</v>
+        <v>-0.1284923608910204</v>
       </c>
       <c r="D70">
-        <v>-0.6063639763238925</v>
+        <v>-0.6063705002423952</v>
+      </c>
+      <c r="E70">
+        <v>21</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -1587,13 +1785,16 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>-1.079238226938123</v>
+        <v>-1.079231988970575</v>
       </c>
       <c r="C71">
-        <v>0.178127237332318</v>
+        <v>0.1781251828546925</v>
       </c>
       <c r="D71">
-        <v>-0.1852299306435907</v>
+        <v>-0.1852378145453699</v>
+      </c>
+      <c r="E71">
+        <v>21</v>
       </c>
       <c r="F71">
         <v>1</v>
@@ -1604,13 +1805,16 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-0.764318993362368</v>
+        <v>-0.7643124586032888</v>
       </c>
       <c r="C72">
-        <v>-0.2620136427841198</v>
+        <v>-0.2620154516362667</v>
       </c>
       <c r="D72">
-        <v>-0.024640086492977</v>
+        <v>-0.02464754046960849</v>
+      </c>
+      <c r="E72">
+        <v>21</v>
       </c>
       <c r="F72">
         <v>2</v>
@@ -1621,13 +1825,16 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-1.44815364255176</v>
+        <v>-1.448145997564433</v>
       </c>
       <c r="C73">
-        <v>-0.1921881489016909</v>
+        <v>-0.1921899967972528</v>
       </c>
       <c r="D73">
-        <v>0.4667877123390984</v>
+        <v>0.4667795268409107</v>
+      </c>
+      <c r="E73">
+        <v>21</v>
       </c>
       <c r="F73">
         <v>2</v>
@@ -1638,13 +1845,16 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-0.8335184218231443</v>
+        <v>-0.8335120054163037</v>
       </c>
       <c r="C74">
-        <v>-0.2033205299522929</v>
+        <v>-0.2033221589316339</v>
       </c>
       <c r="D74">
-        <v>-0.0366525180274262</v>
+        <v>-0.03666033996747675</v>
+      </c>
+      <c r="E74">
+        <v>21</v>
       </c>
       <c r="F74">
         <v>2</v>
@@ -1655,13 +1865,16 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-0.7740252220928656</v>
+        <v>-0.7740188213818595</v>
       </c>
       <c r="C75">
-        <v>0.05999007797904481</v>
+        <v>0.0599881279230322</v>
       </c>
       <c r="D75">
-        <v>-0.3783289666278153</v>
+        <v>-0.3783359998193823</v>
+      </c>
+      <c r="E75">
+        <v>21</v>
       </c>
       <c r="F75">
         <v>1</v>
@@ -1672,13 +1885,16 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>-0.7661441329564276</v>
+        <v>-0.7661376575981764</v>
       </c>
       <c r="C76">
-        <v>0.1192904486510187</v>
+        <v>0.1192887033354857</v>
       </c>
       <c r="D76">
-        <v>-0.4615004015826418</v>
+        <v>-0.4615073584777671</v>
+      </c>
+      <c r="E76">
+        <v>21</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -1689,13 +1905,16 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>-0.8923175492308225</v>
+        <v>-0.8923120906924566</v>
       </c>
       <c r="C77">
-        <v>-0.04257230944476556</v>
+        <v>-0.04257442212875855</v>
       </c>
       <c r="D77">
-        <v>-0.1449005965854002</v>
+        <v>-0.1449083042782613</v>
+      </c>
+      <c r="E77">
+        <v>21</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -1706,13 +1925,16 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>-1.011255500390033</v>
+        <v>-1.011248402019022</v>
       </c>
       <c r="C78">
-        <v>-0.300669303363882</v>
+        <v>-0.3006715758362166</v>
       </c>
       <c r="D78">
-        <v>0.2172100559960042</v>
+        <v>0.2172018657771668</v>
+      </c>
+      <c r="E78">
+        <v>21</v>
       </c>
       <c r="F78">
         <v>2</v>
@@ -1723,13 +1945,16 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>-1.055638368799952</v>
+        <v>-1.055632601594674</v>
       </c>
       <c r="C79">
-        <v>0.06781295892573096</v>
+        <v>0.06781077065598515</v>
       </c>
       <c r="D79">
-        <v>-0.1214990881494011</v>
+        <v>-0.1215064872898617</v>
+      </c>
+      <c r="E79">
+        <v>21</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -1740,13 +1965,16 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-0.7139339234419614</v>
+        <v>-0.7139265600200904</v>
       </c>
       <c r="C80">
-        <v>-0.3559524480801231</v>
+        <v>-0.3559539007252035</v>
       </c>
       <c r="D80">
-        <v>0.01872450532647574</v>
+        <v>0.01871708558224405</v>
+      </c>
+      <c r="E80">
+        <v>21</v>
       </c>
       <c r="F80">
         <v>2</v>
@@ -1757,13 +1985,16 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>-0.6015763059690258</v>
+        <v>-0.6015696443768657</v>
       </c>
       <c r="C81">
-        <v>0.09026464837553408</v>
+        <v>0.09026310653910136</v>
       </c>
       <c r="D81">
-        <v>-0.5779263226806006</v>
+        <v>-0.5779329744321946</v>
+      </c>
+      <c r="E81">
+        <v>21</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -1774,13 +2005,16 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.8633796506598551</v>
+        <v>-0.8633736580525064</v>
       </c>
       <c r="C82">
-        <v>0.01528632299025542</v>
+        <v>0.01528418714418518</v>
       </c>
       <c r="D82">
-        <v>-0.2474686479718777</v>
+        <v>-0.2474761096340388</v>
+      </c>
+      <c r="E82">
+        <v>21</v>
       </c>
       <c r="F82">
         <v>1</v>
@@ -1791,13 +2025,16 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-0.8608829197481119</v>
+        <v>-0.8608768617229927</v>
       </c>
       <c r="C83">
-        <v>-0.1097085797926036</v>
+        <v>-0.1097104073381804</v>
       </c>
       <c r="D83">
-        <v>-0.08906560078224235</v>
+        <v>-0.08907312077711338</v>
+      </c>
+      <c r="E83">
+        <v>21</v>
       </c>
       <c r="F83">
         <v>2</v>
@@ -1808,13 +2045,16 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>-1.136021796288962</v>
+        <v>-1.136016623589724</v>
       </c>
       <c r="C84">
-        <v>0.06300365247799328</v>
+        <v>0.06300190552377129</v>
       </c>
       <c r="D84">
-        <v>-0.03649931302394616</v>
+        <v>-0.03650654592889735</v>
+      </c>
+      <c r="E84">
+        <v>21</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -1825,13 +2065,16 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>-0.9018387392249273</v>
+        <v>-0.9018320038652559</v>
       </c>
       <c r="C85">
-        <v>-0.3845660904430281</v>
+        <v>-0.3845680462925951</v>
       </c>
       <c r="D85">
-        <v>0.2092054656071891</v>
+        <v>0.2091976654210914</v>
+      </c>
+      <c r="E85">
+        <v>21</v>
       </c>
       <c r="F85">
         <v>2</v>
@@ -1842,13 +2085,16 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.7112547940889348</v>
+        <v>-0.7112477899407139</v>
       </c>
       <c r="C86">
-        <v>-0.1021638560170449</v>
+        <v>-0.1021655503649296</v>
       </c>
       <c r="D86">
-        <v>-0.2500478621482898</v>
+        <v>-0.2500552416623265</v>
+      </c>
+      <c r="E86">
+        <v>21</v>
       </c>
       <c r="F86">
         <v>1</v>
@@ -1859,13 +2105,16 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>-0.9362999662617598</v>
+        <v>-0.9362923255686402</v>
       </c>
       <c r="C87">
-        <v>-0.3642780391108008</v>
+        <v>-0.3642799572160134</v>
       </c>
       <c r="D87">
-        <v>0.2172038350287939</v>
+        <v>0.2171963751414669</v>
+      </c>
+      <c r="E87">
+        <v>21</v>
       </c>
       <c r="F87">
         <v>2</v>
@@ -1876,13 +2125,16 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-0.7067845793566417</v>
+        <v>-0.7067786756895125</v>
       </c>
       <c r="C88">
-        <v>-0.080606358592097</v>
+        <v>-0.08060810209460874</v>
       </c>
       <c r="D88">
-        <v>-0.2852064593335759</v>
+        <v>-0.2852137103060919</v>
+      </c>
+      <c r="E88">
+        <v>21</v>
       </c>
       <c r="F88">
         <v>1</v>
@@ -1893,13 +2145,16 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-0.689839664591404</v>
+        <v>-0.689833828488839</v>
       </c>
       <c r="C89">
-        <v>0.002872800225069833</v>
+        <v>0.002870851648264255</v>
       </c>
       <c r="D89">
-        <v>-0.3846807441651308</v>
+        <v>-0.384687794741583</v>
+      </c>
+      <c r="E89">
+        <v>21</v>
       </c>
       <c r="F89">
         <v>1</v>
@@ -1910,13 +2165,16 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-0.2588771729863041</v>
+        <v>-0.2588702209590943</v>
       </c>
       <c r="C90">
-        <v>0.08283472397472383</v>
+        <v>0.08283319028170749</v>
       </c>
       <c r="D90">
-        <v>-0.8387060369426808</v>
+        <v>-0.8387121150382623</v>
+      </c>
+      <c r="E90">
+        <v>22</v>
       </c>
       <c r="F90">
         <v>1</v>
@@ -1927,13 +2185,16 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-1.942390203928128</v>
+        <v>-1.942384294563209</v>
       </c>
       <c r="C91">
-        <v>-0.3042367279558281</v>
+        <v>-0.3042384177326741</v>
       </c>
       <c r="D91">
-        <v>1.031278835395745</v>
+        <v>1.031270713572281</v>
+      </c>
+      <c r="E91">
+        <v>22</v>
       </c>
       <c r="F91">
         <v>2</v>
@@ -1944,13 +2205,16 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-1.365594968895695</v>
+        <v>-1.365588351593392</v>
       </c>
       <c r="C92">
-        <v>-0.4773849746698917</v>
+        <v>-0.4773869968159031</v>
       </c>
       <c r="D92">
-        <v>0.6755542954480993</v>
+        <v>0.6755460938399667</v>
+      </c>
+      <c r="E92">
+        <v>22</v>
       </c>
       <c r="F92">
         <v>2</v>
@@ -1961,13 +2225,16 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-0.821925567781631</v>
+        <v>-0.8219194427503262</v>
       </c>
       <c r="C93">
-        <v>0.09791069158446669</v>
+        <v>0.09790796803159121</v>
       </c>
       <c r="D93">
-        <v>-0.4749909898800371</v>
+        <v>-0.4749967247180347</v>
+      </c>
+      <c r="E93">
+        <v>22</v>
       </c>
       <c r="F93">
         <v>1</v>
@@ -1978,13 +2245,16 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-0.6656743734118217</v>
+        <v>-0.6656676627283717</v>
       </c>
       <c r="C94">
-        <v>-0.3712701733039773</v>
+        <v>-0.3712711223286229</v>
       </c>
       <c r="D94">
-        <v>-0.03123087976660743</v>
+        <v>-0.03123741499193811</v>
+      </c>
+      <c r="E94">
+        <v>22</v>
       </c>
       <c r="F94">
         <v>2</v>
@@ -1995,13 +2265,16 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-1.020920469906857</v>
+        <v>-1.020913894325715</v>
       </c>
       <c r="C95">
-        <v>-0.3064162724926704</v>
+        <v>-0.3064178246748611</v>
       </c>
       <c r="D95">
-        <v>0.2027445810930397</v>
+        <v>0.202738488453311</v>
+      </c>
+      <c r="E95">
+        <v>22</v>
       </c>
       <c r="F95">
         <v>2</v>
@@ -2012,13 +2285,16 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>-0.525332578695077</v>
+        <v>-0.5253251398146312</v>
       </c>
       <c r="C96">
-        <v>-0.5020905309522194</v>
+        <v>-0.5020921069275844</v>
       </c>
       <c r="D96">
-        <v>-0.001542010945718486</v>
+        <v>-0.001548297630491469</v>
+      </c>
+      <c r="E96">
+        <v>22</v>
       </c>
       <c r="F96">
         <v>2</v>
@@ -2029,13 +2305,16 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-0.5756136119026101</v>
+        <v>-0.5756066148004835</v>
       </c>
       <c r="C97">
-        <v>-0.3865261588285549</v>
+        <v>-0.3865273108240843</v>
       </c>
       <c r="D97">
-        <v>-0.1247867282143691</v>
+        <v>-0.1247936055596535</v>
+      </c>
+      <c r="E97">
+        <v>22</v>
       </c>
       <c r="F97">
         <v>2</v>
@@ -2046,13 +2325,16 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-0.842188222775495</v>
+        <v>-0.842181901000604</v>
       </c>
       <c r="C98">
-        <v>-0.09550452081002106</v>
+        <v>-0.09550576881177124</v>
       </c>
       <c r="D98">
-        <v>-0.1257731937843471</v>
+        <v>-0.1257797393410236</v>
+      </c>
+      <c r="E98">
+        <v>22</v>
       </c>
       <c r="F98">
         <v>1</v>
@@ -2063,13 +2345,16 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-0.7217034947829092</v>
+        <v>-0.721696952313158</v>
       </c>
       <c r="C99">
-        <v>-0.4746821833732559</v>
+        <v>-0.4746834481661159</v>
       </c>
       <c r="D99">
-        <v>0.1445243113253405</v>
+        <v>0.1445169117894485</v>
+      </c>
+      <c r="E99">
+        <v>22</v>
       </c>
       <c r="F99">
         <v>2</v>
@@ -2080,13 +2365,16 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-0.57639769983088</v>
+        <v>-0.5763908880897173</v>
       </c>
       <c r="C100">
-        <v>-0.2596223666775462</v>
+        <v>-0.259624621819204</v>
       </c>
       <c r="D100">
-        <v>-0.2690158042125135</v>
+        <v>-0.2690231615442029</v>
+      </c>
+      <c r="E100">
+        <v>22</v>
       </c>
       <c r="F100">
         <v>1</v>
@@ -2097,13 +2385,16 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-1.382890504648442</v>
+        <v>-1.38288470053221</v>
       </c>
       <c r="C101">
-        <v>-0.09972323692827317</v>
+        <v>-0.09972481236456317</v>
       </c>
       <c r="D101">
-        <v>0.3072318367201525</v>
+        <v>0.3072238090897721</v>
+      </c>
+      <c r="E101">
+        <v>22</v>
       </c>
       <c r="F101">
         <v>2</v>
@@ -2114,13 +2405,16 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>-0.746299435528024</v>
+        <v>-0.7462914078078013</v>
       </c>
       <c r="C102">
-        <v>-0.5144482860914479</v>
+        <v>-0.514450237291273</v>
       </c>
       <c r="D102">
-        <v>0.1730390655249197</v>
+        <v>0.1730320806851249</v>
+      </c>
+      <c r="E102">
+        <v>22</v>
       </c>
       <c r="F102">
         <v>2</v>
@@ -2131,13 +2425,16 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>-0.41926160070875</v>
+        <v>-0.4192537251344129</v>
       </c>
       <c r="C103">
-        <v>-0.6162775860539869</v>
+        <v>-0.616279264540517</v>
       </c>
       <c r="D103">
-        <v>-0.05356201640092029</v>
+        <v>-0.05356822963631491</v>
+      </c>
+      <c r="E103">
+        <v>22</v>
       </c>
       <c r="F103">
         <v>2</v>
@@ -2148,13 +2445,16 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>-0.6724661695585108</v>
+        <v>-0.6724589247188302</v>
       </c>
       <c r="C104">
-        <v>-0.7122467633466996</v>
+        <v>-0.7122486047446943</v>
       </c>
       <c r="D104">
-        <v>0.3590821798378552</v>
+        <v>0.3590752019530101</v>
+      </c>
+      <c r="E104">
+        <v>22</v>
       </c>
       <c r="F104">
         <v>2</v>
@@ -2165,13 +2465,16 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>-2.016452580925383</v>
+        <v>-2.016447474471323</v>
       </c>
       <c r="C105">
-        <v>-0.1640015400549384</v>
+        <v>-0.164003779967083</v>
       </c>
       <c r="D105">
-        <v>1.024892649829271</v>
+        <v>1.02488370005384</v>
+      </c>
+      <c r="E105">
+        <v>22</v>
       </c>
       <c r="F105">
         <v>2</v>
@@ -2182,13 +2485,16 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>-1.383004790117126</v>
+        <v>-1.382997846486112</v>
       </c>
       <c r="C106">
-        <v>-0.7188045352759556</v>
+        <v>-0.718806206956581</v>
       </c>
       <c r="D106">
-        <v>0.951528926276469</v>
+        <v>0.9515214341282463</v>
+      </c>
+      <c r="E106">
+        <v>22</v>
       </c>
       <c r="F106">
         <v>2</v>
@@ -2199,13 +2505,16 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>-0.3224368567883178</v>
+        <v>-0.3224293420726206</v>
       </c>
       <c r="C107">
-        <v>-0.6516658517036904</v>
+        <v>-0.6516670848117381</v>
       </c>
       <c r="D107">
-        <v>-0.02623323708286196</v>
+        <v>-0.0262392176795796</v>
+      </c>
+      <c r="E107">
+        <v>22</v>
       </c>
       <c r="F107">
         <v>2</v>
@@ -2216,13 +2525,16 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>-0.9378043401585251</v>
+        <v>-0.937797198306656</v>
       </c>
       <c r="C108">
-        <v>-0.3988356931002137</v>
+        <v>-0.3988371648045904</v>
       </c>
       <c r="D108">
-        <v>0.2596174838892116</v>
+        <v>0.2596108588617818</v>
+      </c>
+      <c r="E108">
+        <v>22</v>
       </c>
       <c r="F108">
         <v>2</v>
@@ -2233,13 +2545,16 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>-0.2228865264557737</v>
+        <v>-0.2228797818329636</v>
       </c>
       <c r="C109">
-        <v>0.01586018819391016</v>
+        <v>0.01585852350090046</v>
       </c>
       <c r="D109">
-        <v>-1.028666765201042</v>
+        <v>-1.028671186258711</v>
+      </c>
+      <c r="E109">
+        <v>22</v>
       </c>
       <c r="F109">
         <v>1</v>
@@ -2250,13 +2565,16 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>-0.4971823699039504</v>
+        <v>-0.4971747908532916</v>
       </c>
       <c r="C110">
-        <v>-0.6353253801579795</v>
+        <v>-0.6353266467872087</v>
       </c>
       <c r="D110">
-        <v>0.011838046304252</v>
+        <v>0.01183129537325422</v>
+      </c>
+      <c r="E110">
+        <v>22</v>
       </c>
       <c r="F110">
         <v>2</v>
@@ -2267,13 +2585,16 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>-1.069205685608463</v>
+        <v>-1.069199371299948</v>
       </c>
       <c r="C111">
-        <v>0.04210749624691604</v>
+        <v>0.04210595222498927</v>
       </c>
       <c r="D111">
-        <v>-0.1059737380637313</v>
+        <v>-0.1059804577984516</v>
+      </c>
+      <c r="E111">
+        <v>22</v>
       </c>
       <c r="F111">
         <v>1</v>
@@ -2284,13 +2605,16 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>-0.8984353209255506</v>
+        <v>-0.8984281400749321</v>
       </c>
       <c r="C112">
-        <v>-0.3337990287684796</v>
+        <v>-0.3338011799478668</v>
       </c>
       <c r="D112">
-        <v>0.1250331390141097</v>
+        <v>0.1250272606481366</v>
+      </c>
+      <c r="E112">
+        <v>22</v>
       </c>
       <c r="F112">
         <v>2</v>
@@ -2301,13 +2625,16 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>-1.10108528014613</v>
+        <v>-1.101078512877472</v>
       </c>
       <c r="C113">
-        <v>-0.45195544408687</v>
+        <v>-0.4519572311614615</v>
       </c>
       <c r="D113">
-        <v>0.4758050292853508</v>
+        <v>0.4757980555228314</v>
+      </c>
+      <c r="E113">
+        <v>22</v>
       </c>
       <c r="F113">
         <v>2</v>
@@ -2318,13 +2645,16 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>-1.013031664659927</v>
+        <v>-1.013025241699461</v>
       </c>
       <c r="C114">
-        <v>-0.4874254584050119</v>
+        <v>-0.4874272617104</v>
       </c>
       <c r="D114">
-        <v>0.3924496925883691</v>
+        <v>0.3924421404742944</v>
+      </c>
+      <c r="E114">
+        <v>22</v>
       </c>
       <c r="F114">
         <v>2</v>
@@ -2335,13 +2665,16 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>-0.9360402306625452</v>
+        <v>-0.9360335654281418</v>
       </c>
       <c r="C115">
-        <v>-0.505116008985671</v>
+        <v>-0.5051172680701974</v>
       </c>
       <c r="D115">
-        <v>0.3485577036940919</v>
+        <v>0.3485502389974919</v>
+      </c>
+      <c r="E115">
+        <v>22</v>
       </c>
       <c r="F115">
         <v>2</v>
@@ -2352,13 +2685,16 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>-0.7576646305746695</v>
+        <v>-0.7576577856393589</v>
       </c>
       <c r="C116">
-        <v>-0.4152803307778166</v>
+        <v>-0.4152820228815008</v>
       </c>
       <c r="D116">
-        <v>0.07022624145406886</v>
+        <v>0.07021906229437369</v>
+      </c>
+      <c r="E116">
+        <v>22</v>
       </c>
       <c r="F116">
         <v>2</v>
@@ -2369,13 +2705,16 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>-1.085438601219439</v>
+        <v>-1.085431033354875</v>
       </c>
       <c r="C117">
-        <v>-0.1051079128369853</v>
+        <v>-0.10511013941147</v>
       </c>
       <c r="D117">
-        <v>0.01124952340595176</v>
+        <v>0.01124397432200475</v>
+      </c>
+      <c r="E117">
+        <v>22</v>
       </c>
       <c r="F117">
         <v>2</v>
@@ -2386,13 +2725,16 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>-0.8294919453026196</v>
+        <v>-0.8294850863506709</v>
       </c>
       <c r="C118">
-        <v>-0.4226364950473088</v>
+        <v>-0.422638208743495</v>
       </c>
       <c r="D118">
-        <v>0.1456264230435982</v>
+        <v>0.1456191620672036</v>
+      </c>
+      <c r="E118">
+        <v>22</v>
       </c>
       <c r="F118">
         <v>2</v>
@@ -2403,13 +2745,16 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>-0.7628652421617623</v>
+        <v>-0.7628587013915722</v>
       </c>
       <c r="C119">
-        <v>-0.4449395880204571</v>
+        <v>-0.4449407317256483</v>
       </c>
       <c r="D119">
-        <v>0.205037038381741</v>
+        <v>0.2050307003216403</v>
+      </c>
+      <c r="E119">
+        <v>22</v>
       </c>
       <c r="F119">
         <v>2</v>
@@ -2420,13 +2765,16 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>-1.170010982831303</v>
+        <v>-1.170004668814391</v>
       </c>
       <c r="C120">
-        <v>-0.4474973667438352</v>
+        <v>-0.4474993458065214</v>
       </c>
       <c r="D120">
-        <v>0.5286223353032415</v>
+        <v>0.5286149836491161</v>
+      </c>
+      <c r="E120">
+        <v>22</v>
       </c>
       <c r="F120">
         <v>2</v>
@@ -2437,13 +2785,16 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>-0.8930514297059943</v>
+        <v>-0.8930451935555188</v>
       </c>
       <c r="C121">
-        <v>-0.03942619133005069</v>
+        <v>-0.03942880861481983</v>
       </c>
       <c r="D121">
-        <v>-0.1765356808042924</v>
+        <v>-0.1765425072587936</v>
+      </c>
+      <c r="E121">
+        <v>23</v>
       </c>
       <c r="F121">
         <v>1</v>
@@ -2454,13 +2805,16 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>-0.07634073812726591</v>
+        <v>-0.07633316909304627</v>
       </c>
       <c r="C122">
-        <v>-0.3973581671957617</v>
+        <v>-0.3973599885525477</v>
       </c>
       <c r="D122">
-        <v>-0.6433439505338113</v>
+        <v>-0.6433506449215518</v>
+      </c>
+      <c r="E122">
+        <v>23</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -2471,13 +2825,16 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>-0.6298537954285612</v>
+        <v>-0.629846910931376</v>
       </c>
       <c r="C123">
-        <v>-0.2960448002144856</v>
+        <v>-0.2960473379864877</v>
       </c>
       <c r="D123">
-        <v>-0.2519663814766655</v>
+        <v>-0.2519728399033543</v>
+      </c>
+      <c r="E123">
+        <v>23</v>
       </c>
       <c r="F123">
         <v>2</v>
@@ -2488,13 +2845,16 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.1921938112210508</v>
+        <v>0.1922012864260982</v>
       </c>
       <c r="C124">
-        <v>-0.2485771993642369</v>
+        <v>-0.2485793889986913</v>
       </c>
       <c r="D124">
-        <v>-1.004485260889715</v>
+        <v>-1.004492247197805</v>
+      </c>
+      <c r="E124">
+        <v>23</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -2505,13 +2865,16 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.3805628245679825</v>
+        <v>0.3805697991676435</v>
       </c>
       <c r="C125">
-        <v>-0.5578901152978866</v>
+        <v>-0.5578914096903043</v>
       </c>
       <c r="D125">
-        <v>-0.8229644697591596</v>
+        <v>-0.8229709294820745</v>
+      </c>
+      <c r="E125">
+        <v>23</v>
       </c>
       <c r="F125">
         <v>0</v>
@@ -2522,13 +2885,16 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>-0.2257423714914148</v>
+        <v>-0.225735356400756</v>
       </c>
       <c r="C126">
-        <v>-0.08310084818161789</v>
+        <v>-0.08310290102569433</v>
       </c>
       <c r="D126">
-        <v>-0.7926965312265057</v>
+        <v>-0.7927037860987044</v>
+      </c>
+      <c r="E126">
+        <v>23</v>
       </c>
       <c r="F126">
         <v>1</v>
@@ -2539,13 +2905,16 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.145133540466161</v>
+        <v>0.1451403876283286</v>
       </c>
       <c r="C127">
-        <v>-0.1691296311066971</v>
+        <v>-0.1691314428750375</v>
       </c>
       <c r="D127">
-        <v>-1.043198806124977</v>
+        <v>-1.043205197447395</v>
+      </c>
+      <c r="E127">
+        <v>23</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -2556,13 +2925,16 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.6982541125135032</v>
+        <v>0.6982614710166227</v>
       </c>
       <c r="C128">
-        <v>-0.5422167893757732</v>
+        <v>-0.54221864307348</v>
       </c>
       <c r="D128">
-        <v>-1.186288150507672</v>
+        <v>-1.186294452382558</v>
+      </c>
+      <c r="E128">
+        <v>23</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -2573,13 +2945,16 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>-0.01598942645159718</v>
+        <v>-0.01598222418542403</v>
       </c>
       <c r="C129">
-        <v>-0.355676635110004</v>
+        <v>-0.3556783136383776</v>
       </c>
       <c r="D129">
-        <v>-0.6993876928434595</v>
+        <v>-0.699394523840994</v>
+      </c>
+      <c r="E129">
+        <v>23</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -2590,13 +2965,16 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.006429332280548733</v>
+        <v>0.006436657950340013</v>
       </c>
       <c r="C130">
-        <v>-0.382564409444488</v>
+        <v>-0.3825666088002033</v>
       </c>
       <c r="D130">
-        <v>-0.7479829393788601</v>
+        <v>-0.7479903660680903</v>
+      </c>
+      <c r="E130">
+        <v>23</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -2607,13 +2985,16 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>-0.4826221172680079</v>
+        <v>-0.4826155841349198</v>
       </c>
       <c r="C131">
-        <v>-0.2638216955543355</v>
+        <v>-0.2638239666205544</v>
       </c>
       <c r="D131">
-        <v>-0.3589443253356877</v>
+        <v>-0.358950923020275</v>
+      </c>
+      <c r="E131">
+        <v>23</v>
       </c>
       <c r="F131">
         <v>1</v>
@@ -2624,13 +3005,16 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>-0.2266577560761099</v>
+        <v>-0.2266502119265399</v>
       </c>
       <c r="C132">
-        <v>-0.3542127475372184</v>
+        <v>-0.3542144223911351</v>
       </c>
       <c r="D132">
-        <v>-0.500888167987781</v>
+        <v>-0.5008943778908308</v>
+      </c>
+      <c r="E132">
+        <v>23</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -2641,13 +3025,16 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>-0.2377030395540297</v>
+        <v>-0.2376965224149391</v>
       </c>
       <c r="C133">
-        <v>-0.03925161606260481</v>
+        <v>-0.03925401726080299</v>
       </c>
       <c r="D133">
-        <v>-0.8102584107617397</v>
+        <v>-0.8102662993847091</v>
+      </c>
+      <c r="E133">
+        <v>23</v>
       </c>
       <c r="F133">
         <v>1</v>
@@ -2658,13 +3045,16 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>-0.1619890474688619</v>
+        <v>-0.1619822197151412</v>
       </c>
       <c r="C134">
-        <v>-0.3279640089545152</v>
+        <v>-0.3279655600167643</v>
       </c>
       <c r="D134">
-        <v>-0.5501817403218465</v>
+        <v>-0.5501879786764192</v>
+      </c>
+      <c r="E134">
+        <v>23</v>
       </c>
       <c r="F134">
         <v>0</v>
@@ -2675,13 +3065,16 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.2328630983708914</v>
+        <v>0.2328705277393033</v>
       </c>
       <c r="C135">
-        <v>-0.3385500686081998</v>
+        <v>-0.3385515701717575</v>
       </c>
       <c r="D135">
-        <v>-0.9787191181407627</v>
+        <v>-0.9787255686620485</v>
+      </c>
+      <c r="E135">
+        <v>23</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -2692,13 +3085,16 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>-0.2726902796836531</v>
+        <v>-0.2726832572801941</v>
       </c>
       <c r="C136">
-        <v>-0.2014147793576157</v>
+        <v>-0.2014165818510421</v>
       </c>
       <c r="D136">
-        <v>-0.5907396030248582</v>
+        <v>-0.5907465130096595</v>
+      </c>
+      <c r="E136">
+        <v>23</v>
       </c>
       <c r="F136">
         <v>1</v>
@@ -2709,13 +3105,16 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>-0.1124122701858586</v>
+        <v>-0.1124049008693529</v>
       </c>
       <c r="C137">
-        <v>-0.344296638643747</v>
+        <v>-0.3442982297625124</v>
       </c>
       <c r="D137">
-        <v>-0.5695289938118153</v>
+        <v>-0.5695358836344224</v>
+      </c>
+      <c r="E137">
+        <v>23</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -2726,13 +3125,16 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.06272718985646292</v>
+        <v>0.06273367692930895</v>
       </c>
       <c r="C138">
-        <v>-0.3494672788829082</v>
+        <v>-0.3494693522190891</v>
       </c>
       <c r="D138">
-        <v>-0.7761315640821802</v>
+        <v>-0.7761386214533071</v>
+      </c>
+      <c r="E138">
+        <v>23</v>
       </c>
       <c r="F138">
         <v>0</v>
@@ -2743,13 +3145,16 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>-0.1526393037863713</v>
+        <v>-0.1526328451511055</v>
       </c>
       <c r="C139">
-        <v>-0.1326385549632446</v>
+        <v>-0.1326405516595537</v>
       </c>
       <c r="D139">
-        <v>-0.8140084160313935</v>
+        <v>-0.8140157051560877</v>
+      </c>
+      <c r="E139">
+        <v>23</v>
       </c>
       <c r="F139">
         <v>1</v>
@@ -2760,13 +3165,16 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>-0.4535307848050329</v>
+        <v>-0.4535233680258948</v>
       </c>
       <c r="C140">
-        <v>-0.1275025812860276</v>
+        <v>-0.127504425724653</v>
       </c>
       <c r="D140">
-        <v>-0.4509993799053975</v>
+        <v>-0.4510068586686757</v>
+      </c>
+      <c r="E140">
+        <v>23</v>
       </c>
       <c r="F140">
         <v>1</v>
@@ -2777,13 +3185,16 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>-0.5072520283370511</v>
+        <v>-0.5072451504890385</v>
       </c>
       <c r="C141">
-        <v>-0.4379514308306838</v>
+        <v>-0.4379531037702001</v>
       </c>
       <c r="D141">
-        <v>-0.1753607362867367</v>
+        <v>-0.1753668494266762</v>
+      </c>
+      <c r="E141">
+        <v>23</v>
       </c>
       <c r="F141">
         <v>2</v>
@@ -2794,13 +3205,16 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.2392922636417454</v>
+        <v>0.239299912293116</v>
       </c>
       <c r="C142">
-        <v>-0.3832759403437033</v>
+        <v>-0.383277947197253</v>
       </c>
       <c r="D142">
-        <v>-0.9314454591717238</v>
+        <v>-0.9314520579614822</v>
+      </c>
+      <c r="E142">
+        <v>23</v>
       </c>
       <c r="F142">
         <v>0</v>
@@ -2811,13 +3225,16 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>-0.3067591379864997</v>
+        <v>-0.306751915874137</v>
       </c>
       <c r="C143">
-        <v>-0.01599945331025451</v>
+        <v>-0.01600142482799369</v>
       </c>
       <c r="D143">
-        <v>-0.7634607043491284</v>
+        <v>-0.7634678142057336</v>
+      </c>
+      <c r="E143">
+        <v>23</v>
       </c>
       <c r="F143">
         <v>1</v>
@@ -2828,13 +3245,16 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>-0.2067235495885395</v>
+        <v>-0.2067166163678779</v>
       </c>
       <c r="C144">
-        <v>-0.1969382206699343</v>
+        <v>-0.1969399776037774</v>
       </c>
       <c r="D144">
-        <v>-0.7055683666637256</v>
+        <v>-0.7055745142747756</v>
+      </c>
+      <c r="E144">
+        <v>23</v>
       </c>
       <c r="F144">
         <v>1</v>
@@ -2845,13 +3265,16 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>-0.5143090685241064</v>
+        <v>-0.5143020411119452</v>
       </c>
       <c r="C145">
-        <v>-0.1064204459612158</v>
+        <v>-0.1064225943878916</v>
       </c>
       <c r="D145">
-        <v>-0.4643009165126732</v>
+        <v>-0.4643079784880395</v>
+      </c>
+      <c r="E145">
+        <v>23</v>
       </c>
       <c r="F145">
         <v>1</v>
@@ -2862,13 +3285,16 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>-0.297752545777519</v>
+        <v>-0.2977455826084666</v>
       </c>
       <c r="C146">
-        <v>-0.6591906005006487</v>
+        <v>-0.659192512756663</v>
       </c>
       <c r="D146">
-        <v>-0.1653989775813838</v>
+        <v>-0.1654060649062696</v>
+      </c>
+      <c r="E146">
+        <v>23</v>
       </c>
       <c r="F146">
         <v>2</v>
@@ -2879,13 +3305,16 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.2137393194816749</v>
+        <v>0.2137467532557856</v>
       </c>
       <c r="C147">
-        <v>-0.3951431005360448</v>
+        <v>-0.3951446904289581</v>
       </c>
       <c r="D147">
-        <v>-0.8590467273267833</v>
+        <v>-0.8590532764832604</v>
+      </c>
+      <c r="E147">
+        <v>23</v>
       </c>
       <c r="F147">
         <v>0</v>
@@ -2896,13 +3325,16 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>-0.1948384903028045</v>
+        <v>-0.1948317108368693</v>
       </c>
       <c r="C148">
-        <v>-0.340062432569088</v>
+        <v>-0.3400640672519756</v>
       </c>
       <c r="D148">
-        <v>-0.5789875726009333</v>
+        <v>-0.5789944186192555</v>
+      </c>
+      <c r="E148">
+        <v>23</v>
       </c>
       <c r="F148">
         <v>0</v>
@@ -2913,13 +3345,16 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>-0.266790368572947</v>
+        <v>-0.2667828491181353</v>
       </c>
       <c r="C149">
-        <v>-0.4878532660882745</v>
+        <v>-0.4878540753521556</v>
       </c>
       <c r="D149">
-        <v>-0.3246214272812564</v>
+        <v>-0.3246277078149047</v>
+      </c>
+      <c r="E149">
+        <v>24</v>
       </c>
       <c r="F149">
         <v>0</v>
@@ -2930,13 +3365,16 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.3165685687256456</v>
+        <v>0.3165761820405224</v>
       </c>
       <c r="C150">
-        <v>-0.6747813925378292</v>
+        <v>-0.6747832269220428</v>
       </c>
       <c r="D150">
-        <v>-0.6955053435764423</v>
+        <v>-0.6955112620072674</v>
+      </c>
+      <c r="E150">
+        <v>24</v>
       </c>
       <c r="F150">
         <v>0</v>
@@ -2947,13 +3385,16 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.3982159074575323</v>
+        <v>0.3982233969490366</v>
       </c>
       <c r="C151">
-        <v>-0.7686375474348062</v>
+        <v>-0.7686391515631514</v>
       </c>
       <c r="D151">
-        <v>-0.6307533813142293</v>
+        <v>-0.6307595162329135</v>
+      </c>
+      <c r="E151">
+        <v>24</v>
       </c>
       <c r="F151">
         <v>0</v>
@@ -2964,13 +3405,16 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>-0.08944861042462524</v>
+        <v>-0.08944094016169701</v>
       </c>
       <c r="C152">
-        <v>-0.3996798494865186</v>
+        <v>-0.3996809669204164</v>
       </c>
       <c r="D152">
-        <v>-0.591975792778253</v>
+        <v>-0.591981957719487</v>
+      </c>
+      <c r="E152">
+        <v>24</v>
       </c>
       <c r="F152">
         <v>0</v>
@@ -2981,13 +3425,16 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>-0.1257811395921674</v>
+        <v>-0.1257731792770527</v>
       </c>
       <c r="C153">
-        <v>-0.5780288187984861</v>
+        <v>-0.5780298762791887</v>
       </c>
       <c r="D153">
-        <v>-0.391666797648462</v>
+        <v>-0.3916732595384234</v>
+      </c>
+      <c r="E153">
+        <v>24</v>
       </c>
       <c r="F153">
         <v>0</v>
@@ -2998,13 +3445,16 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>-0.4078129583713991</v>
+        <v>-0.4078055267172764</v>
       </c>
       <c r="C154">
-        <v>-0.3906109448336005</v>
+        <v>-0.3906122155841521</v>
       </c>
       <c r="D154">
-        <v>-0.3237980433516339</v>
+        <v>-0.3238043697354767</v>
+      </c>
+      <c r="E154">
+        <v>24</v>
       </c>
       <c r="F154">
         <v>2</v>
@@ -3015,13 +3465,16 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>-0.5083173379359224</v>
+        <v>-0.5083095024815323</v>
       </c>
       <c r="C155">
-        <v>-0.4743758990114575</v>
+        <v>-0.4743771268057106</v>
       </c>
       <c r="D155">
-        <v>-0.1430201920641303</v>
+        <v>-0.1430267567398196</v>
+      </c>
+      <c r="E155">
+        <v>24</v>
       </c>
       <c r="F155">
         <v>2</v>
@@ -3032,13 +3485,16 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>-0.6197749649266306</v>
+        <v>-0.6197672818599154</v>
       </c>
       <c r="C156">
-        <v>-0.4142942455677063</v>
+        <v>-0.4142954214402131</v>
       </c>
       <c r="D156">
-        <v>-0.1149015551524282</v>
+        <v>-0.1149077638735014</v>
+      </c>
+      <c r="E156">
+        <v>24</v>
       </c>
       <c r="F156">
         <v>2</v>
@@ -3049,13 +3505,16 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.168289206744996</v>
+        <v>0.1682969056310542</v>
       </c>
       <c r="C157">
-        <v>-0.3850617397900075</v>
+        <v>-0.3850633574456185</v>
       </c>
       <c r="D157">
-        <v>-1.051301680578804</v>
+        <v>-1.051305611397537</v>
+      </c>
+      <c r="E157">
+        <v>24</v>
       </c>
       <c r="F157">
         <v>0</v>
@@ -3066,13 +3525,16 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>-0.2136980905919962</v>
+        <v>-0.2136902466968494</v>
       </c>
       <c r="C158">
-        <v>-0.6011416486069567</v>
+        <v>-0.6011430539317456</v>
       </c>
       <c r="D158">
-        <v>-0.258685447647049</v>
+        <v>-0.25869232877944</v>
+      </c>
+      <c r="E158">
+        <v>24</v>
       </c>
       <c r="F158">
         <v>0</v>
@@ -3083,13 +3545,16 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>-0.1703838995931695</v>
+        <v>-0.1703770440117313</v>
       </c>
       <c r="C159">
-        <v>-0.4871200848829068</v>
+        <v>-0.487121737075738</v>
       </c>
       <c r="D159">
-        <v>-0.4349746074598844</v>
+        <v>-0.4349809661219131</v>
+      </c>
+      <c r="E159">
+        <v>24</v>
       </c>
       <c r="F159">
         <v>0</v>
@@ -3100,13 +3565,16 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>-0.1431080928689714</v>
+        <v>-0.143100237759461</v>
       </c>
       <c r="C160">
-        <v>-0.5671601726831448</v>
+        <v>-0.5671610474717906</v>
       </c>
       <c r="D160">
-        <v>-0.3614507380089864</v>
+        <v>-0.3614571313166397</v>
+      </c>
+      <c r="E160">
+        <v>24</v>
       </c>
       <c r="F160">
         <v>0</v>
@@ -3117,13 +3585,16 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>-0.3461136930393256</v>
+        <v>-0.346105987776884</v>
       </c>
       <c r="C161">
-        <v>-0.5877964454635651</v>
+        <v>-0.5877979217015503</v>
       </c>
       <c r="D161">
-        <v>-0.2120013178470315</v>
+        <v>-0.2120074072545342</v>
+      </c>
+      <c r="E161">
+        <v>24</v>
       </c>
       <c r="F161">
         <v>2</v>
@@ -3134,13 +3605,16 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.1984911387085602</v>
+        <v>0.1984986185588575</v>
       </c>
       <c r="C162">
-        <v>-0.5590967265637226</v>
+        <v>-0.5590978716553564</v>
       </c>
       <c r="D162">
-        <v>-0.7389043561162786</v>
+        <v>-0.7389095654059291</v>
+      </c>
+      <c r="E162">
+        <v>24</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -3151,13 +3625,16 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>-0.4480636201873017</v>
+        <v>-0.4480557863820464</v>
       </c>
       <c r="C163">
-        <v>-0.4010759163362345</v>
+        <v>-0.4010772309596772</v>
       </c>
       <c r="D163">
-        <v>-0.3047738155294297</v>
+        <v>-0.3047805167323736</v>
+      </c>
+      <c r="E163">
+        <v>24</v>
       </c>
       <c r="F163">
         <v>2</v>
@@ -3168,13 +3645,16 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>-0.1273080642943714</v>
+        <v>-0.1273003522825899</v>
       </c>
       <c r="C164">
-        <v>-0.4931421837393248</v>
+        <v>-0.4931436039054102</v>
       </c>
       <c r="D164">
-        <v>-0.4794057095389774</v>
+        <v>-0.479411645377108</v>
+      </c>
+      <c r="E164">
+        <v>24</v>
       </c>
       <c r="F164">
         <v>0</v>
@@ -3185,13 +3665,16 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.09909672982217949</v>
+        <v>0.09910399975456452</v>
       </c>
       <c r="C165">
-        <v>-0.5429595554217019</v>
+        <v>-0.5429604187513106</v>
       </c>
       <c r="D165">
-        <v>-0.6223289880843003</v>
+        <v>-0.6223349724281879</v>
+      </c>
+      <c r="E165">
+        <v>24</v>
       </c>
       <c r="F165">
         <v>0</v>
@@ -3202,13 +3685,16 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>-0.2426540474812632</v>
+        <v>-0.2426457479200785</v>
       </c>
       <c r="C166">
-        <v>-0.460075975476241</v>
+        <v>-0.4600772922374946</v>
       </c>
       <c r="D166">
-        <v>-0.3842650198566173</v>
+        <v>-0.3842714041340429</v>
+      </c>
+      <c r="E166">
+        <v>24</v>
       </c>
       <c r="F166">
         <v>0</v>
@@ -3219,13 +3705,16 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.1349237997425607</v>
+        <v>0.134932202018713</v>
       </c>
       <c r="C167">
-        <v>-0.4882291940720542</v>
+        <v>-0.4882309864789903</v>
       </c>
       <c r="D167">
-        <v>-0.7521288076182898</v>
+        <v>-0.7521343211366229</v>
+      </c>
+      <c r="E167">
+        <v>24</v>
       </c>
       <c r="F167">
         <v>0</v>
@@ -3236,13 +3725,16 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>-0.7825868832670142</v>
+        <v>-0.7825790274395705</v>
       </c>
       <c r="C168">
-        <v>-0.6454151171479781</v>
+        <v>-0.6454164706600879</v>
       </c>
       <c r="D168">
-        <v>0.2513438549099103</v>
+        <v>0.2513380429350185</v>
+      </c>
+      <c r="E168">
+        <v>24</v>
       </c>
       <c r="F168">
         <v>2</v>
@@ -3253,13 +3745,16 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>-0.6628026012546541</v>
+        <v>-0.6627944814324143</v>
       </c>
       <c r="C169">
-        <v>-0.7520916822924035</v>
+        <v>-0.7520930458691609</v>
       </c>
       <c r="D169">
-        <v>0.235853189009984</v>
+        <v>0.2358463018317498</v>
+      </c>
+      <c r="E169">
+        <v>24</v>
       </c>
       <c r="F169">
         <v>2</v>
@@ -3270,13 +3765,16 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>-0.02845929448397869</v>
+        <v>-0.02845149243913525</v>
       </c>
       <c r="C170">
-        <v>-0.4130780878772769</v>
+        <v>-0.4130792637646686</v>
       </c>
       <c r="D170">
-        <v>-0.6022501325433031</v>
+        <v>-0.602256412974891</v>
+      </c>
+      <c r="E170">
+        <v>25</v>
       </c>
       <c r="F170">
         <v>0</v>
@@ -3287,13 +3785,16 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>-0.3316345673981909</v>
+        <v>-0.3316275706715213</v>
       </c>
       <c r="C171">
-        <v>-0.1529108405538663</v>
+        <v>-0.1529125693548363</v>
       </c>
       <c r="D171">
-        <v>-0.595900411898</v>
+        <v>-0.5959067022015002</v>
+      </c>
+      <c r="E171">
+        <v>25</v>
       </c>
       <c r="F171">
         <v>1</v>
@@ -3304,13 +3805,16 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>-0.3207590910387502</v>
+        <v>-0.3207515988803534</v>
       </c>
       <c r="C172">
-        <v>-0.2729663235605304</v>
+        <v>-0.2729673314625093</v>
       </c>
       <c r="D172">
-        <v>-0.4745073403977795</v>
+        <v>-0.4745134746547854</v>
+      </c>
+      <c r="E172">
+        <v>25</v>
       </c>
       <c r="F172">
         <v>1</v>
@@ -3321,13 +3825,16 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>-0.03886821332216103</v>
+        <v>-0.03886054654216253</v>
       </c>
       <c r="C173">
-        <v>-0.4089517715617701</v>
+        <v>-0.4089527253689882</v>
       </c>
       <c r="D173">
-        <v>-0.5923167579657058</v>
+        <v>-0.5923228146507492</v>
+      </c>
+      <c r="E173">
+        <v>25</v>
       </c>
       <c r="F173">
         <v>0</v>
@@ -3338,13 +3845,16 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.1639001042381457</v>
+        <v>0.1639073405376638</v>
       </c>
       <c r="C174">
-        <v>-0.4935472237765888</v>
+        <v>-0.4935483580730481</v>
       </c>
       <c r="D174">
-        <v>-0.6894360697765347</v>
+        <v>-0.6894419530675963</v>
+      </c>
+      <c r="E174">
+        <v>25</v>
       </c>
       <c r="F174">
         <v>0</v>
@@ -3355,13 +3865,16 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>-0.4987826014344089</v>
+        <v>-0.4987752178910195</v>
       </c>
       <c r="C175">
-        <v>-0.2003026746994895</v>
+        <v>-0.2003043905168309</v>
       </c>
       <c r="D175">
-        <v>-0.4234220391553709</v>
+        <v>-0.4234277857766127</v>
+      </c>
+      <c r="E175">
+        <v>25</v>
       </c>
       <c r="F175">
         <v>1</v>
@@ -3372,13 +3885,16 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>-0.1272883496123292</v>
+        <v>-0.1272801546982535</v>
       </c>
       <c r="C176">
-        <v>-0.314479546101808</v>
+        <v>-0.3144813796950681</v>
       </c>
       <c r="D176">
-        <v>-0.6104895030653563</v>
+        <v>-0.6104950220153454</v>
+      </c>
+      <c r="E176">
+        <v>25</v>
       </c>
       <c r="F176">
         <v>0</v>
@@ -3389,13 +3905,16 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>-0.003219553128078867</v>
+        <v>-0.003212063064560289</v>
       </c>
       <c r="C177">
-        <v>-0.6872882009968684</v>
+        <v>-0.6872888985324263</v>
       </c>
       <c r="D177">
-        <v>-0.375193525934163</v>
+        <v>-0.3751998460695838</v>
+      </c>
+      <c r="E177">
+        <v>25</v>
       </c>
       <c r="F177">
         <v>0</v>
@@ -3406,13 +3925,16 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.05016763606107663</v>
+        <v>0.05017544777351951</v>
       </c>
       <c r="C178">
-        <v>-0.3998568650347353</v>
+        <v>-0.3998588013180815</v>
       </c>
       <c r="D178">
-        <v>-0.6804200160117104</v>
+        <v>-0.6804242449174189</v>
+      </c>
+      <c r="E178">
+        <v>25</v>
       </c>
       <c r="F178">
         <v>0</v>
@@ -3423,13 +3945,16 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.03040313661023375</v>
+        <v>0.0304110288599577</v>
       </c>
       <c r="C179">
-        <v>-0.5324918274101706</v>
+        <v>-0.5324931557072721</v>
       </c>
       <c r="D179">
-        <v>-0.5210221618684328</v>
+        <v>-0.521027987173164</v>
+      </c>
+      <c r="E179">
+        <v>25</v>
       </c>
       <c r="F179">
         <v>0</v>
@@ -3440,13 +3965,16 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.3113626079099189</v>
+        <v>0.3113702122056378</v>
       </c>
       <c r="C180">
-        <v>-0.4309291296531518</v>
+        <v>-0.4309304299108396</v>
       </c>
       <c r="D180">
-        <v>-0.8736139267487887</v>
+        <v>-0.8736192990168423</v>
+      </c>
+      <c r="E180">
+        <v>25</v>
       </c>
       <c r="F180">
         <v>0</v>
@@ -3457,13 +3985,16 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>-0.2354654627685378</v>
+        <v>-0.2354574666088617</v>
       </c>
       <c r="C181">
-        <v>-0.3356935512493881</v>
+        <v>-0.335694671697136</v>
       </c>
       <c r="D181">
-        <v>-0.4497815327140566</v>
+        <v>-0.4497880968978527</v>
+      </c>
+      <c r="E181">
+        <v>25</v>
       </c>
       <c r="F181">
         <v>0</v>
@@ -3474,13 +4005,16 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.2329792350840224</v>
+        <v>0.23298733204916</v>
       </c>
       <c r="C182">
-        <v>-0.3301234136457729</v>
+        <v>-0.3301245170329558</v>
       </c>
       <c r="D182">
-        <v>-0.9170914113366908</v>
+        <v>-0.9170972811397413</v>
+      </c>
+      <c r="E182">
+        <v>25</v>
       </c>
       <c r="F182">
         <v>0</v>
@@ -3491,13 +4025,16 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.3790440111793946</v>
+        <v>0.3790520720455666</v>
       </c>
       <c r="C183">
-        <v>-0.6704218789433041</v>
+        <v>-0.6704227405915969</v>
       </c>
       <c r="D183">
-        <v>-0.7398404941602108</v>
+        <v>-0.7398448263117544</v>
+      </c>
+      <c r="E183">
+        <v>25</v>
       </c>
       <c r="F183">
         <v>0</v>
@@ -3508,13 +4045,16 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>-0.4140462157869208</v>
+        <v>-0.4140385429433179</v>
       </c>
       <c r="C184">
-        <v>-0.3670752697412731</v>
+        <v>-0.3670763127376804</v>
       </c>
       <c r="D184">
-        <v>-0.2947663786957953</v>
+        <v>-0.2947726742108221</v>
+      </c>
+      <c r="E184">
+        <v>25</v>
       </c>
       <c r="F184">
         <v>2</v>
@@ -3525,13 +4065,16 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.09285863453945839</v>
+        <v>0.09286642846757207</v>
       </c>
       <c r="C185">
-        <v>-0.3896097361140194</v>
+        <v>-0.3896108205391814</v>
       </c>
       <c r="D185">
-        <v>-0.6666251218997917</v>
+        <v>-0.6666305646413663</v>
+      </c>
+      <c r="E185">
+        <v>25</v>
       </c>
       <c r="F185">
         <v>0</v>
@@ -3542,13 +4085,16 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.2534657770918399</v>
+        <v>0.2534736388746235</v>
       </c>
       <c r="C186">
-        <v>-0.3842003389276243</v>
+        <v>-0.3842011799567941</v>
       </c>
       <c r="D186">
-        <v>-0.8492221918877642</v>
+        <v>-0.8492276824195639</v>
+      </c>
+      <c r="E186">
+        <v>25</v>
       </c>
       <c r="F186">
         <v>0</v>
@@ -3559,13 +4105,16 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>-0.03966456135065868</v>
+        <v>-0.0396574098527403</v>
       </c>
       <c r="C187">
-        <v>-0.4074903053248682</v>
+        <v>-0.4074918323824308</v>
       </c>
       <c r="D187">
-        <v>-0.5614358114099141</v>
+        <v>-0.5614420699963181</v>
+      </c>
+      <c r="E187">
+        <v>25</v>
       </c>
       <c r="F187">
         <v>0</v>
@@ -3576,13 +4125,16 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>-0.4317190034304859</v>
+        <v>-0.4317109430730681</v>
       </c>
       <c r="C188">
-        <v>-0.4708985429173354</v>
+        <v>-0.4709000753871977</v>
       </c>
       <c r="D188">
-        <v>-0.2108557772084583</v>
+        <v>-0.2108625777105602</v>
+      </c>
+      <c r="E188">
+        <v>25</v>
       </c>
       <c r="F188">
         <v>2</v>
@@ -3593,13 +4145,16 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>-0.6153580637683265</v>
+        <v>-0.6153481695938969</v>
       </c>
       <c r="C189">
-        <v>-0.869312881391348</v>
+        <v>-0.8693162828122618</v>
       </c>
       <c r="D189">
-        <v>0.4306431544569134</v>
+        <v>0.430636028030901</v>
+      </c>
+      <c r="E189">
+        <v>25</v>
       </c>
       <c r="F189">
         <v>2</v>
@@ -3610,13 +4165,16 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.107988359121274</v>
+        <v>0.107995408746733</v>
       </c>
       <c r="C190">
-        <v>-0.5657083593856376</v>
+        <v>-0.5657090396450539</v>
       </c>
       <c r="D190">
-        <v>-0.6002850075509911</v>
+        <v>-0.6002909757244905</v>
+      </c>
+      <c r="E190">
+        <v>25</v>
       </c>
       <c r="F190">
         <v>0</v>
@@ -3627,13 +4185,16 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>-0.2602966892440715</v>
+        <v>-0.2602888662508219</v>
       </c>
       <c r="C191">
-        <v>-0.4598502937626428</v>
+        <v>-0.4598515433456047</v>
       </c>
       <c r="D191">
-        <v>-0.3324524321287645</v>
+        <v>-0.3324586023268736</v>
+      </c>
+      <c r="E191">
+        <v>25</v>
       </c>
       <c r="F191">
         <v>0</v>
@@ -3644,13 +4205,16 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>-0.09442376775412906</v>
+        <v>-0.09441633512367509</v>
       </c>
       <c r="C192">
-        <v>-0.4505132554435547</v>
+        <v>-0.4505145343707289</v>
       </c>
       <c r="D192">
-        <v>-0.4925877752248664</v>
+        <v>-0.4925935234048628</v>
+      </c>
+      <c r="E192">
+        <v>25</v>
       </c>
       <c r="F192">
         <v>0</v>
@@ -3661,13 +4225,16 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.2583164294282442</v>
+        <v>0.2583240142094728</v>
       </c>
       <c r="C193">
-        <v>-0.5645826204267823</v>
+        <v>-0.5645844608451733</v>
       </c>
       <c r="D193">
-        <v>-0.7876006728377128</v>
+        <v>-0.7876073347840208</v>
+      </c>
+      <c r="E193">
+        <v>26</v>
       </c>
       <c r="F193">
         <v>0</v>
@@ -3678,13 +4245,16 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.09032729954190355</v>
+        <v>0.09033468302663072</v>
       </c>
       <c r="C194">
-        <v>-0.3224384996327745</v>
+        <v>-0.3224409855344497</v>
       </c>
       <c r="D194">
-        <v>-0.8697977174640108</v>
+        <v>-0.8698040055165186</v>
+      </c>
+      <c r="E194">
+        <v>26</v>
       </c>
       <c r="F194">
         <v>0</v>
@@ -3695,13 +4265,16 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.02088747397773147</v>
+        <v>0.02089591759535783</v>
       </c>
       <c r="C195">
-        <v>-0.5470563731055531</v>
+        <v>-0.5470581757940519</v>
       </c>
       <c r="D195">
-        <v>-0.5798347941596846</v>
+        <v>-0.5798415528231311</v>
+      </c>
+      <c r="E195">
+        <v>26</v>
       </c>
       <c r="F195">
         <v>0</v>
@@ -3712,13 +4285,16 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.7762687081700271</v>
+        <v>0.7762765949840424</v>
       </c>
       <c r="C196">
-        <v>-0.6826824833455327</v>
+        <v>-0.6826843805854709</v>
       </c>
       <c r="D196">
-        <v>-1.140243701595128</v>
+        <v>-1.140249973118387</v>
+      </c>
+      <c r="E196">
+        <v>26</v>
       </c>
       <c r="F196">
         <v>0</v>
@@ -3729,13 +4305,16 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.4035173402259525</v>
+        <v>0.4035256854097532</v>
       </c>
       <c r="C197">
-        <v>-0.6618592225178153</v>
+        <v>-0.6618607836035417</v>
       </c>
       <c r="D197">
-        <v>-0.7922660214736067</v>
+        <v>-0.7922727533038015</v>
+      </c>
+      <c r="E197">
+        <v>26</v>
       </c>
       <c r="F197">
         <v>0</v>
@@ -3746,13 +4325,16 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.5752796808347286</v>
+        <v>0.5752879053426828</v>
       </c>
       <c r="C198">
-        <v>-0.425087378944261</v>
+        <v>-0.4250896188539124</v>
       </c>
       <c r="D198">
-        <v>-1.19324452934365</v>
+        <v>-1.193250101044816</v>
+      </c>
+      <c r="E198">
+        <v>26</v>
       </c>
       <c r="F198">
         <v>0</v>
@@ -3763,13 +4345,16 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.4325648566507694</v>
+        <v>0.4325721409768356</v>
       </c>
       <c r="C199">
-        <v>-0.5813482021749161</v>
+        <v>-0.5813500331753347</v>
       </c>
       <c r="D199">
-        <v>-0.9822573820198923</v>
+        <v>-0.9822634416554528</v>
+      </c>
+      <c r="E199">
+        <v>26</v>
       </c>
       <c r="F199">
         <v>0</v>
@@ -3780,13 +4365,16 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>1.048269233192032</v>
+        <v>1.048277554239348</v>
       </c>
       <c r="C200">
-        <v>-0.7880266641355431</v>
+        <v>-0.7880289027238321</v>
       </c>
       <c r="D200">
-        <v>-1.300131398360113</v>
+        <v>-1.300137477597211</v>
+      </c>
+      <c r="E200">
+        <v>26</v>
       </c>
       <c r="F200">
         <v>0</v>
@@ -3797,13 +4385,16 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.2666878280446708</v>
+        <v>0.26669572679712</v>
       </c>
       <c r="C201">
-        <v>-0.6990806075590361</v>
+        <v>-0.6990829880386887</v>
       </c>
       <c r="D201">
-        <v>-0.6728724124750938</v>
+        <v>-0.6728787426667594</v>
+      </c>
+      <c r="E201">
+        <v>26</v>
       </c>
       <c r="F201">
         <v>0</v>
@@ -3814,13 +4405,16 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.3376822738723276</v>
+        <v>0.3376903681090472</v>
       </c>
       <c r="C202">
-        <v>-0.7513966980714897</v>
+        <v>-0.7513986346265298</v>
       </c>
       <c r="D202">
-        <v>-0.6285480326936818</v>
+        <v>-0.6285542852325651</v>
+      </c>
+      <c r="E202">
+        <v>26</v>
       </c>
       <c r="F202">
         <v>0</v>
@@ -3831,13 +4425,16 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.402608614327111</v>
+        <v>0.4026167973196299</v>
       </c>
       <c r="C203">
-        <v>-0.4630891263274221</v>
+        <v>-0.4630911154978873</v>
       </c>
       <c r="D203">
-        <v>-1.052258535159218</v>
+        <v>-1.052264306539949</v>
+      </c>
+      <c r="E203">
+        <v>26</v>
       </c>
       <c r="F203">
         <v>0</v>
@@ -3848,13 +4445,16 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.8725981190031231</v>
+        <v>0.8726052586367363</v>
       </c>
       <c r="C204">
-        <v>-0.8934880638362126</v>
+        <v>-0.8934897502026827</v>
       </c>
       <c r="D204">
-        <v>-1.01290777527991</v>
+        <v>-1.012913687425499</v>
+      </c>
+      <c r="E204">
+        <v>26</v>
       </c>
       <c r="F204">
         <v>0</v>
@@ -3865,13 +4465,16 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.3379795719419755</v>
+        <v>0.3379872461347508</v>
       </c>
       <c r="C205">
-        <v>-0.6107284513275837</v>
+        <v>-0.6107306852553834</v>
       </c>
       <c r="D205">
-        <v>-0.8134822122298405</v>
+        <v>-0.8134882092344782</v>
+      </c>
+      <c r="E205">
+        <v>26</v>
       </c>
       <c r="F205">
         <v>0</v>
@@ -3882,13 +4485,16 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.5395272233380521</v>
+        <v>0.5395343874708185</v>
       </c>
       <c r="C206">
-        <v>-0.5193577686024151</v>
+        <v>-0.5193598967876802</v>
       </c>
       <c r="D206">
-        <v>-1.077433162120977</v>
+        <v>-1.077438903945341</v>
+      </c>
+      <c r="E206">
+        <v>26</v>
       </c>
       <c r="F206">
         <v>0</v>
@@ -3899,13 +4505,16 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.3996867492128396</v>
+        <v>0.3996935309426638</v>
       </c>
       <c r="C207">
-        <v>-0.4099124528029262</v>
+        <v>-0.4099146287231136</v>
       </c>
       <c r="D207">
-        <v>-1.130161755082172</v>
+        <v>-1.130166927962569</v>
+      </c>
+      <c r="E207">
+        <v>26</v>
       </c>
       <c r="F207">
         <v>0</v>
@@ -3916,13 +4525,16 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.6632281514144095</v>
+        <v>0.6632349555654665</v>
       </c>
       <c r="C208">
-        <v>-0.6064165334154292</v>
+        <v>-0.6064180153235679</v>
       </c>
       <c r="D208">
-        <v>-1.147036655642947</v>
+        <v>-1.147043034755002</v>
+      </c>
+      <c r="E208">
+        <v>26</v>
       </c>
       <c r="F208">
         <v>0</v>
@@ -3933,13 +4545,16 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>1.228392755854353</v>
+        <v>1.228399776812501</v>
       </c>
       <c r="C209">
-        <v>-0.9779246080303787</v>
+        <v>-0.977926502397739</v>
       </c>
       <c r="D209">
-        <v>-1.254831867555429</v>
+        <v>-1.254837701435043</v>
+      </c>
+      <c r="E209">
+        <v>26</v>
       </c>
       <c r="F209">
         <v>0</v>
@@ -3950,13 +4565,16 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.6925229933232474</v>
+        <v>0.6925303648688361</v>
       </c>
       <c r="C210">
-        <v>-0.7919338712398361</v>
+        <v>-0.7919356069279138</v>
       </c>
       <c r="D210">
-        <v>-0.9612700234812273</v>
+        <v>-0.9612761615352438</v>
+      </c>
+      <c r="E210">
+        <v>26</v>
       </c>
       <c r="F210">
         <v>0</v>
@@ -3967,13 +4585,16 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.7540660081225782</v>
+        <v>0.754073634520104</v>
       </c>
       <c r="C211">
-        <v>-0.8169502456997064</v>
+        <v>-0.8169519952292372</v>
       </c>
       <c r="D211">
-        <v>-0.964634060066443</v>
+        <v>-0.9646401041959132</v>
+      </c>
+      <c r="E211">
+        <v>26</v>
       </c>
       <c r="F211">
         <v>0</v>
@@ -3984,13 +4605,16 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.3002341963108684</v>
+        <v>0.3002422138312804</v>
       </c>
       <c r="C212">
-        <v>-0.6530541970460562</v>
+        <v>-0.6530557316356904</v>
       </c>
       <c r="D212">
-        <v>-0.6711441965761571</v>
+        <v>-0.6711506194271607</v>
+      </c>
+      <c r="E212">
+        <v>26</v>
       </c>
       <c r="F212">
         <v>0</v>
@@ -4001,13 +4625,16 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.3094782189468921</v>
+        <v>0.3094859462783666</v>
       </c>
       <c r="C213">
-        <v>-0.7516672562813513</v>
+        <v>-0.7516689183700792</v>
       </c>
       <c r="D213">
-        <v>-0.6349115696795403</v>
+        <v>-0.6349178870395199</v>
+      </c>
+      <c r="E213">
+        <v>26</v>
       </c>
       <c r="F213">
         <v>0</v>
@@ -4018,13 +4645,16 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.4808379656831305</v>
+        <v>0.4808454262598936</v>
       </c>
       <c r="C214">
-        <v>-0.8284818592526788</v>
+        <v>-0.8284834494891635</v>
       </c>
       <c r="D214">
-        <v>-0.7146553748760112</v>
+        <v>-0.7146615993709522</v>
+      </c>
+      <c r="E214">
+        <v>26</v>
       </c>
       <c r="F214">
         <v>0</v>
@@ -4035,13 +4665,16 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.4896962145850312</v>
+        <v>0.4897036810385465</v>
       </c>
       <c r="C215">
-        <v>-0.762719399387618</v>
+        <v>-0.7627212189327865</v>
       </c>
       <c r="D215">
-        <v>-0.7848301112102695</v>
+        <v>-0.7848364930935634</v>
+      </c>
+      <c r="E215">
+        <v>26</v>
       </c>
       <c r="F215">
         <v>0</v>
@@ -4052,13 +4685,16 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>-0.1655652380842141</v>
+        <v>-0.1655574889600152</v>
       </c>
       <c r="C216">
-        <v>0.005631017263495908</v>
+        <v>0.005629385817201488</v>
       </c>
       <c r="D216">
-        <v>-0.9072718160341881</v>
+        <v>-0.907278294790586</v>
+      </c>
+      <c r="E216">
+        <v>27</v>
       </c>
       <c r="F216">
         <v>1</v>
@@ -4069,13 +4705,16 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.1982405303111099</v>
+        <v>0.1982479182143007</v>
       </c>
       <c r="C217">
-        <v>-0.1972074177812739</v>
+        <v>-0.1972094515959657</v>
       </c>
       <c r="D217">
-        <v>-1.03734666422246</v>
+        <v>-1.037353275875388</v>
+      </c>
+      <c r="E217">
+        <v>27</v>
       </c>
       <c r="F217">
         <v>0</v>
@@ -4086,13 +4725,16 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.119810041249147</v>
+        <v>0.1198175818501897</v>
       </c>
       <c r="C218">
-        <v>-0.3144316159379001</v>
+        <v>-0.3144335085621073</v>
       </c>
       <c r="D218">
-        <v>-0.8430496162792935</v>
+        <v>-0.8430561278338301</v>
+      </c>
+      <c r="E218">
+        <v>27</v>
       </c>
       <c r="F218">
         <v>0</v>
@@ -4103,13 +4745,16 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.2294034629316115</v>
+        <v>0.2294106065124533</v>
       </c>
       <c r="C219">
-        <v>-0.2158712589384253</v>
+        <v>-0.2158729774080558</v>
       </c>
       <c r="D219">
-        <v>-1.050807797999907</v>
+        <v>-1.050814552148526</v>
+      </c>
+      <c r="E219">
+        <v>27</v>
       </c>
       <c r="F219">
         <v>0</v>
@@ -4120,13 +4765,16 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>-0.1539266487885248</v>
+        <v>-0.1539184550544458</v>
       </c>
       <c r="C220">
-        <v>-0.01664933529484924</v>
+        <v>-0.0166513073842816</v>
       </c>
       <c r="D220">
-        <v>-0.8890738358705291</v>
+        <v>-0.8890797644374738</v>
+      </c>
+      <c r="E220">
+        <v>27</v>
       </c>
       <c r="F220">
         <v>1</v>
@@ -4137,13 +4785,16 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>-0.26293468511531</v>
+        <v>-0.2629270949316759</v>
       </c>
       <c r="C221">
-        <v>-0.06471396075607519</v>
+        <v>-0.06471544412844125</v>
       </c>
       <c r="D221">
-        <v>-0.7437656726264888</v>
+        <v>-0.7437729060903566</v>
+      </c>
+      <c r="E221">
+        <v>27</v>
       </c>
       <c r="F221">
         <v>1</v>
@@ -4154,13 +4805,16 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.3293723478945866</v>
+        <v>0.3293795480987667</v>
       </c>
       <c r="C222">
-        <v>-0.1837136428866812</v>
+        <v>-0.1837152994181103</v>
       </c>
       <c r="D222">
-        <v>-1.190938396337426</v>
+        <v>-1.190945038443593</v>
+      </c>
+      <c r="E222">
+        <v>27</v>
       </c>
       <c r="F222">
         <v>0</v>
@@ -4171,13 +4825,16 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.3100708866052722</v>
+        <v>0.3100789568057404</v>
       </c>
       <c r="C223">
-        <v>-0.3326980729499636</v>
+        <v>-0.3326997315412598</v>
       </c>
       <c r="D223">
-        <v>-1.010200098304459</v>
+        <v>-1.010207185422165</v>
+      </c>
+      <c r="E223">
+        <v>27</v>
       </c>
       <c r="F223">
         <v>0</v>
@@ -4188,13 +4845,16 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.3925197558634615</v>
+        <v>0.3925284094171663</v>
       </c>
       <c r="C224">
-        <v>-0.2797322116982672</v>
+        <v>-0.2797336922216868</v>
       </c>
       <c r="D224">
-        <v>-1.145596814662493</v>
+        <v>-1.145604112588543</v>
+      </c>
+      <c r="E224">
+        <v>27</v>
       </c>
       <c r="F224">
         <v>0</v>
@@ -4205,13 +4865,16 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.4948805904747418</v>
+        <v>0.494888853911119</v>
       </c>
       <c r="C225">
-        <v>-0.2452100615549571</v>
+        <v>-0.2452123840976853</v>
       </c>
       <c r="D225">
-        <v>-1.303457670712687</v>
+        <v>-1.303463876770707</v>
+      </c>
+      <c r="E225">
+        <v>27</v>
       </c>
       <c r="F225">
         <v>0</v>
@@ -4222,13 +4885,16 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.5333619602318754</v>
+        <v>0.5333707729227983</v>
       </c>
       <c r="C226">
-        <v>-0.08711916397621683</v>
+        <v>-0.08712156679880188</v>
       </c>
       <c r="D226">
-        <v>-1.490006704235607</v>
+        <v>-1.490011620996417</v>
+      </c>
+      <c r="E226">
+        <v>27</v>
       </c>
       <c r="F226">
         <v>0</v>
@@ -4239,13 +4905,16 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.6188576061523308</v>
+        <v>0.618865106904797</v>
       </c>
       <c r="C227">
-        <v>-0.3045818869787205</v>
+        <v>-0.3045841958225195</v>
       </c>
       <c r="D227">
-        <v>-1.342022976087054</v>
+        <v>-1.34202926892402</v>
+      </c>
+      <c r="E227">
+        <v>27</v>
       </c>
       <c r="F227">
         <v>0</v>
@@ -4256,13 +4925,16 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.3785360429935946</v>
+        <v>0.3785429111570777</v>
       </c>
       <c r="C228">
-        <v>-0.1308947921861716</v>
+        <v>-0.1308961629944976</v>
       </c>
       <c r="D228">
-        <v>-1.274356133370716</v>
+        <v>-1.274362085765339</v>
+      </c>
+      <c r="E228">
+        <v>27</v>
       </c>
       <c r="F228">
         <v>0</v>
@@ -4273,13 +4945,16 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.1703732927900304</v>
+        <v>0.1703802262903847</v>
       </c>
       <c r="C229">
-        <v>-0.370541596972217</v>
+        <v>-0.3705438251762156</v>
       </c>
       <c r="D229">
-        <v>-0.820810976223415</v>
+        <v>-0.8208179859132997</v>
+      </c>
+      <c r="E229">
+        <v>27</v>
       </c>
       <c r="F229">
         <v>0</v>
@@ -4290,13 +4965,16 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.4535787227522903</v>
+        <v>0.4535872485063147</v>
       </c>
       <c r="C230">
-        <v>-0.6530617820518583</v>
+        <v>-0.6530629393409519</v>
       </c>
       <c r="D230">
-        <v>-0.8337595666063934</v>
+        <v>-0.8337658988007244</v>
+      </c>
+      <c r="E230">
+        <v>27</v>
       </c>
       <c r="F230">
         <v>0</v>
@@ -4307,13 +4985,16 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>-0.5278829808781113</v>
+        <v>-0.5278756499919002</v>
       </c>
       <c r="C231">
-        <v>-0.2095372705473499</v>
+        <v>-0.2095393286518871</v>
       </c>
       <c r="D231">
-        <v>-0.3976495870000105</v>
+        <v>-0.3976568783107157</v>
+      </c>
+      <c r="E231">
+        <v>27</v>
       </c>
       <c r="F231">
         <v>1</v>
@@ -4324,13 +5005,16 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>-0.294541887005492</v>
+        <v>-0.2945345120560953</v>
       </c>
       <c r="C232">
-        <v>-0.6868355455271844</v>
+        <v>-0.6868372486384408</v>
       </c>
       <c r="D232">
-        <v>-0.09318657181496337</v>
+        <v>-0.09319258922198737</v>
+      </c>
+      <c r="E232">
+        <v>27</v>
       </c>
       <c r="F232">
         <v>2</v>
@@ -4341,13 +5025,16 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.4507177930277317</v>
+        <v>0.4507252664792573</v>
       </c>
       <c r="C233">
-        <v>-0.6628084708629727</v>
+        <v>-0.6628100891033049</v>
       </c>
       <c r="D233">
-        <v>-0.8274011038243012</v>
+        <v>-0.8274076925429906</v>
+      </c>
+      <c r="E233">
+        <v>27</v>
       </c>
       <c r="F233">
         <v>0</v>
@@ -4358,13 +5045,16 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.2187539739521287</v>
+        <v>0.2187613285642691</v>
       </c>
       <c r="C234">
-        <v>-0.3784131876996252</v>
+        <v>-0.3784148981228726</v>
       </c>
       <c r="D234">
-        <v>-0.8542119973614467</v>
+        <v>-0.8542187939457379</v>
+      </c>
+      <c r="E234">
+        <v>27</v>
       </c>
       <c r="F234">
         <v>0</v>
@@ -4375,13 +5065,16 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>-0.1163799515100797</v>
+        <v>-0.1163725437871572</v>
       </c>
       <c r="C235">
-        <v>-0.398855389820154</v>
+        <v>-0.398857196627351</v>
       </c>
       <c r="D235">
-        <v>-0.4927766249668526</v>
+        <v>-0.4927833235793764</v>
+      </c>
+      <c r="E235">
+        <v>27</v>
       </c>
       <c r="F235">
         <v>0</v>
@@ -4392,13 +5085,16 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>-0.3762055092496943</v>
+        <v>-0.3761987426704562</v>
       </c>
       <c r="C236">
-        <v>-0.03613819009763992</v>
+        <v>-0.03614045307014842</v>
       </c>
       <c r="D236">
-        <v>-0.6860361150877781</v>
+        <v>-0.6860433023059161</v>
+      </c>
+      <c r="E236">
+        <v>27</v>
       </c>
       <c r="F236">
         <v>1</v>
@@ -4409,13 +5105,16 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.002821274970666587</v>
+        <v>0.002828753516931654</v>
       </c>
       <c r="C237">
-        <v>-0.2112375503088907</v>
+        <v>-0.2112397553936741</v>
       </c>
       <c r="D237">
-        <v>-0.858900989756376</v>
+        <v>-0.8589076159751259</v>
+      </c>
+      <c r="E237">
+        <v>27</v>
       </c>
       <c r="F237">
         <v>0</v>
@@ -4426,13 +5125,16 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.1861078801182101</v>
+        <v>0.1861156970097657</v>
       </c>
       <c r="C238">
-        <v>-0.1902102818971952</v>
+        <v>-0.1902121708961338</v>
       </c>
       <c r="D238">
-        <v>-1.096731588962801</v>
+        <v>-1.096738108638273</v>
+      </c>
+      <c r="E238">
+        <v>27</v>
       </c>
       <c r="F238">
         <v>0</v>
@@ -4443,13 +5145,16 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>-0.08151045548031174</v>
+        <v>-0.08150296045812466</v>
       </c>
       <c r="C239">
-        <v>-0.2538804074445756</v>
+        <v>-0.2538832478661265</v>
       </c>
       <c r="D239">
-        <v>-0.7414818125171644</v>
+        <v>-0.7414888046848317</v>
+      </c>
+      <c r="E239">
+        <v>27</v>
       </c>
       <c r="F239">
         <v>0</v>
@@ -4460,13 +5165,16 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.5100691607353454</v>
+        <v>0.5100768246985135</v>
       </c>
       <c r="C240">
-        <v>-0.2273529329064379</v>
+        <v>-0.2273543184693573</v>
       </c>
       <c r="D240">
-        <v>-1.353708245115863</v>
+        <v>-1.353713481667153</v>
+      </c>
+      <c r="E240">
+        <v>27</v>
       </c>
       <c r="F240">
         <v>0</v>
@@ -4477,13 +5185,16 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>-0.3087288902646004</v>
+        <v>-0.3087208017736824</v>
       </c>
       <c r="C241">
-        <v>-0.4381902873606834</v>
+        <v>-0.438192488730038</v>
       </c>
       <c r="D241">
-        <v>-0.330489146470782</v>
+        <v>-0.3304954793386516</v>
+      </c>
+      <c r="E241">
+        <v>27</v>
       </c>
       <c r="F241">
         <v>0</v>
@@ -4494,13 +5205,16 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.09835496001828635</v>
+        <v>0.09836294312837437</v>
       </c>
       <c r="C242">
-        <v>-0.4341017721389059</v>
+        <v>-0.4341039534321864</v>
       </c>
       <c r="D242">
-        <v>-0.7368688274866946</v>
+        <v>-0.7368751233938793</v>
+      </c>
+      <c r="E242">
+        <v>27</v>
       </c>
       <c r="F242">
         <v>0</v>
@@ -4511,13 +5225,16 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>-0.9420042105898617</v>
+        <v>-0.9419961424588135</v>
       </c>
       <c r="C243">
-        <v>-0.2271742565231188</v>
+        <v>-0.2271770334087199</v>
       </c>
       <c r="D243">
-        <v>0.02240523689366558</v>
+        <v>0.02239869206649181</v>
+      </c>
+      <c r="E243">
+        <v>27</v>
       </c>
       <c r="F243">
         <v>2</v>
@@ -4528,13 +5245,16 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>-0.1931180219992699</v>
+        <v>-0.1931112704700126</v>
       </c>
       <c r="C244">
-        <v>-0.5083495978613304</v>
+        <v>-0.5083508858131478</v>
       </c>
       <c r="D244">
-        <v>-0.3485513527930502</v>
+        <v>-0.3485581173796095</v>
+      </c>
+      <c r="E244">
+        <v>27</v>
       </c>
       <c r="F244">
         <v>0</v>
@@ -4545,13 +5265,16 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>-0.2021759682114997</v>
+        <v>-0.2021677880225615</v>
       </c>
       <c r="C245">
-        <v>-0.5336844602143231</v>
+        <v>-0.5336866327254151</v>
       </c>
       <c r="D245">
-        <v>-0.3735407295852222</v>
+        <v>-0.3735474408958168</v>
+      </c>
+      <c r="E245">
+        <v>27</v>
       </c>
       <c r="F245">
         <v>0</v>
@@ -4562,13 +5285,16 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>-0.3878656225587178</v>
+        <v>-0.3878581722934821</v>
       </c>
       <c r="C246">
-        <v>-0.3730637888536866</v>
+        <v>-0.3730662108242884</v>
       </c>
       <c r="D246">
-        <v>-0.3279045262080253</v>
+        <v>-0.3279115339499954</v>
+      </c>
+      <c r="E246">
+        <v>27</v>
       </c>
       <c r="F246">
         <v>2</v>
